--- a/data/price/DJI.xlsx
+++ b/data/price/DJI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morten/data_science/Text_Analytics/Exam/price/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morten/data_science/Text_Analytics/TA_Exam/data/price/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43E2117-E596-1941-B9DF-1E2A38CC4238}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCE94E9-121E-4E4A-9A2B-631E4757C724}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23660" windowHeight="15240" xr2:uid="{C25B8DFF-EDD1-4913-B600-DAD37D6182D1}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Upper bound</t>
-  </si>
-  <si>
     <t>Lower Bound</t>
   </si>
   <si>
@@ -1818,6 +1815,9 @@
   </si>
   <si>
     <t>03-01-17</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +1894,7 @@
   <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{0526710B-A2E5-4ECA-AF4C-0AA80C10C5F1}" uniqueName="3" name="High" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{002CF441-33FF-497F-ACD2-2405E55BAA2E}" uniqueName="4" name="Low" queryTableFieldId="4"/>
-    <tableColumn id="8" xr3:uid="{B357E2B4-8059-4001-B772-1048360D6DAF}" uniqueName="8" name="Upper bound" queryTableFieldId="8"/>
+    <tableColumn id="8" xr3:uid="{B357E2B4-8059-4001-B772-1048360D6DAF}" uniqueName="8" name="Upper Bound" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{5FEC2CA9-E994-457E-AE1D-4BAC5B82BD33}" uniqueName="9" name="Lower Bound" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2201,7 +2201,7 @@
   <dimension ref="A1:E588"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2220,10 +2220,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>19777.567382999998</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2260,7 +2260,7 @@
         <v>19635.26953125</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2277,7 +2277,7 @@
         <v>19819.785644250001</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2294,7 +2294,7 @@
         <v>19814.603027249999</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2311,7 +2311,7 @@
         <v>19890.5625</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2328,7 +2328,7 @@
         <v>19794.413085750002</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2345,7 +2345,7 @@
         <v>19732.709472750001</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2362,7 +2362,7 @@
         <v>19937.14453125</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2379,7 +2379,7 @@
         <v>19877.670410250001</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2396,7 +2396,7 @@
         <v>19843.95703125</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2413,7 +2413,7 @@
         <v>19833.396972750001</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2430,7 +2430,7 @@
         <v>19793.89453125</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2447,7 +2447,7 @@
         <v>19797.892089749999</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2464,7 +2464,7 @@
         <v>19737.314941500001</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2481,7 +2481,7 @@
         <v>19732.290527249999</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2498,7 +2498,7 @@
         <v>19546.942382999998</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2515,7 +2515,7 @@
         <v>19575.930175500001</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2532,7 +2532,7 @@
         <v>19577.35546875</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2549,7 +2549,7 @@
         <v>19684.521972750001</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2566,7 +2566,7 @@
         <v>19778.115234749999</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2583,7 +2583,7 @@
         <v>19659.584472750001</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2600,7 +2600,7 @@
         <v>19603.853027249999</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2617,7 +2617,7 @@
         <v>19591.732910250001</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2634,7 +2634,7 @@
         <v>19553.767089749999</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2651,7 +2651,7 @@
         <v>19328.752441500001</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2668,7 +2668,7 @@
         <v>19182.517089749999</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2685,7 +2685,7 @@
         <v>19068.952148250002</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2702,7 +2702,7 @@
         <v>19158.584472750001</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2719,7 +2719,7 @@
         <v>19029.194824499999</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2736,7 +2736,7 @@
         <v>19126.086914249998</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2753,7 +2753,7 @@
         <v>19243.334472750001</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -2770,7 +2770,7 @@
         <v>19252.973144250001</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -2787,7 +2787,7 @@
         <v>19361.189941500001</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -2804,7 +2804,7 @@
         <v>19339.245117000002</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -2821,7 +2821,7 @@
         <v>19237.274414249998</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -2838,7 +2838,7 @@
         <v>19215.982910250001</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2855,7 +2855,7 @@
         <v>19178.482910250001</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -2872,7 +2872,7 @@
         <v>19141.627441500001</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2889,7 +2889,7 @@
         <v>18906</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2906,7 +2906,7 @@
         <v>18939.345703499999</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2923,7 +2923,7 @@
         <v>19014.413085750002</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2940,7 +2940,7 @@
         <v>19225.283203499999</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2957,7 +2957,7 @@
         <v>19294.223144250001</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -2974,7 +2974,7 @@
         <v>19208.663085750002</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -2991,7 +2991,7 @@
         <v>19435.776855749999</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -3008,7 +3008,7 @@
         <v>19422.420410250001</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -3025,7 +3025,7 @@
         <v>19407.930175500001</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -3042,7 +3042,7 @@
         <v>19474.507324499999</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3059,7 +3059,7 @@
         <v>19560.495117000002</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3076,7 +3076,7 @@
         <v>19429.702148250002</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -3093,7 +3093,7 @@
         <v>19321.658203499999</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -3110,7 +3110,7 @@
         <v>19384.860351749998</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -3127,7 +3127,7 @@
         <v>19365.007324499999</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -3144,7 +3144,7 @@
         <v>19173.473144250001</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -3161,7 +3161,7 @@
         <v>18981.067382999998</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -3178,7 +3178,7 @@
         <v>19110.64453125</v>
       </c>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -3195,7 +3195,7 @@
         <v>18864.021972750001</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -3212,7 +3212,7 @@
         <v>18756.824706750001</v>
       </c>
       <c r="E59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3229,7 +3229,7 @@
         <v>18662.279297249999</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -3246,7 +3246,7 @@
         <v>18750.389648250002</v>
       </c>
       <c r="E61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -3263,7 +3263,7 @@
         <v>18984.045410250001</v>
       </c>
       <c r="E62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -3280,7 +3280,7 @@
         <v>18965.737793249999</v>
       </c>
       <c r="E63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -3297,7 +3297,7 @@
         <v>18733.252441500001</v>
       </c>
       <c r="E64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3314,7 +3314,7 @@
         <v>18736.867675500001</v>
       </c>
       <c r="E65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3331,7 +3331,7 @@
         <v>18631.567382999998</v>
       </c>
       <c r="E66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3348,7 +3348,7 @@
         <v>18593.175293249999</v>
       </c>
       <c r="E67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3365,7 +3365,7 @@
         <v>18378.029297249999</v>
       </c>
       <c r="E68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3382,7 +3382,7 @@
         <v>18242.954589749999</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3399,7 +3399,7 @@
         <v>18507.5625</v>
       </c>
       <c r="E70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3416,7 +3416,7 @@
         <v>18317.047851749998</v>
       </c>
       <c r="E71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3433,7 +3433,7 @@
         <v>18230.377441500001</v>
       </c>
       <c r="E72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3450,7 +3450,7 @@
         <v>18183.232910250001</v>
       </c>
       <c r="E73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3467,7 +3467,7 @@
         <v>18344.271972750001</v>
       </c>
       <c r="E74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3484,7 +3484,7 @@
         <v>18066.675293249999</v>
       </c>
       <c r="E75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3501,7 +3501,7 @@
         <v>18089.790527249999</v>
       </c>
       <c r="E76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3518,7 +3518,7 @@
         <v>17915.947265999999</v>
       </c>
       <c r="E77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3535,7 +3535,7 @@
         <v>17823.930175500001</v>
       </c>
       <c r="E78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3552,7 +3552,7 @@
         <v>17848.620117000002</v>
       </c>
       <c r="E79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3569,7 +3569,7 @@
         <v>17777.4375</v>
       </c>
       <c r="E80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3586,7 +3586,7 @@
         <v>17832.420410250001</v>
       </c>
       <c r="E81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3603,7 +3603,7 @@
         <v>17686.086914249998</v>
       </c>
       <c r="E82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3620,7 +3620,7 @@
         <v>17476.192382999998</v>
       </c>
       <c r="E83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -3637,7 +3637,7 @@
         <v>17171.189941500001</v>
       </c>
       <c r="E84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3654,7 +3654,7 @@
         <v>16978.807617000002</v>
       </c>
       <c r="E85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3671,7 +3671,7 @@
         <v>17196.442382999998</v>
       </c>
       <c r="E86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -3688,7 +3688,7 @@
         <v>17338.725585750002</v>
       </c>
       <c r="E87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -3705,7 +3705,7 @@
         <v>17235.997558499999</v>
       </c>
       <c r="E88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -3722,7 +3722,7 @@
         <v>16700.564941500001</v>
       </c>
       <c r="E89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -3739,7 +3739,7 @@
         <v>16284.396972750001</v>
       </c>
       <c r="E90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -3756,7 +3756,7 @@
         <v>16344.149414249998</v>
       </c>
       <c r="E91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -3773,7 +3773,7 @@
         <v>16797.254882999998</v>
       </c>
       <c r="E92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -3790,7 +3790,7 @@
         <v>16983.232910250001</v>
       </c>
       <c r="E93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -3807,7 +3807,7 @@
         <v>17371.98046875</v>
       </c>
       <c r="E94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -3824,7 +3824,7 @@
         <v>17637.014648250002</v>
       </c>
       <c r="E95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -3841,7 +3841,7 @@
         <v>17592.660644250001</v>
       </c>
       <c r="E96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -3858,7 +3858,7 @@
         <v>18025.341797249999</v>
       </c>
       <c r="E97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -3875,7 +3875,7 @@
         <v>18354.966797249999</v>
       </c>
       <c r="E98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -3892,7 +3892,7 @@
         <v>18381.817382999998</v>
       </c>
       <c r="E99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -3909,7 +3909,7 @@
         <v>18165.795410250001</v>
       </c>
       <c r="E100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -3926,7 +3926,7 @@
         <v>17911.026855749999</v>
       </c>
       <c r="E101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -3943,7 +3943,7 @@
         <v>18213.584472750001</v>
       </c>
       <c r="E102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -3960,7 +3960,7 @@
         <v>18181.665527249999</v>
       </c>
       <c r="E103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -3977,7 +3977,7 @@
         <v>18756.08203125</v>
       </c>
       <c r="E104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -3994,7 +3994,7 @@
         <v>19252.882324499999</v>
       </c>
       <c r="E105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -4011,7 +4011,7 @@
         <v>18938.228027249999</v>
       </c>
       <c r="E106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -4028,7 +4028,7 @@
         <v>18902.091797249999</v>
       </c>
       <c r="E107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -4045,7 +4045,7 @@
         <v>18624.629882999998</v>
       </c>
       <c r="E108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -4062,7 +4062,7 @@
         <v>18312.021972750001</v>
       </c>
       <c r="E109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4079,7 +4079,7 @@
         <v>18273.098144250001</v>
       </c>
       <c r="E110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -4096,7 +4096,7 @@
         <v>18201.555175500001</v>
       </c>
       <c r="E111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -4113,7 +4113,7 @@
         <v>18347.459472750001</v>
       </c>
       <c r="E112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -4130,7 +4130,7 @@
         <v>18276.735351749998</v>
       </c>
       <c r="E113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -4147,7 +4147,7 @@
         <v>18675.735351749998</v>
       </c>
       <c r="E114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -4164,7 +4164,7 @@
         <v>18860.850585750002</v>
       </c>
       <c r="E115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -4181,7 +4181,7 @@
         <v>18590.841797249999</v>
       </c>
       <c r="E116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -4198,7 +4198,7 @@
         <v>18701.865234749999</v>
       </c>
       <c r="E117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -4215,7 +4215,7 @@
         <v>18895.334472750001</v>
       </c>
       <c r="E118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -4232,7 +4232,7 @@
         <v>19005.382324499999</v>
       </c>
       <c r="E119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -4249,7 +4249,7 @@
         <v>19412.182617000002</v>
       </c>
       <c r="E120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -4266,7 +4266,7 @@
         <v>19561.425293249999</v>
       </c>
       <c r="E121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -4283,7 +4283,7 @@
         <v>19324.410644250001</v>
       </c>
       <c r="E122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -4300,7 +4300,7 @@
         <v>19083.675293249999</v>
       </c>
       <c r="E123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -4317,7 +4317,7 @@
         <v>18946.103027249999</v>
       </c>
       <c r="E124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -4334,7 +4334,7 @@
         <v>18809.040527249999</v>
       </c>
       <c r="E125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -4351,7 +4351,7 @@
         <v>18831.08203125</v>
       </c>
       <c r="E126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -4368,7 +4368,7 @@
         <v>18756.615234749999</v>
       </c>
       <c r="E127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -4385,7 +4385,7 @@
         <v>18311.767089749999</v>
       </c>
       <c r="E128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -4402,7 +4402,7 @@
         <v>18091.672851749998</v>
       </c>
       <c r="E129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -4419,7 +4419,7 @@
         <v>18333.892089749999</v>
       </c>
       <c r="E130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -4436,7 +4436,7 @@
         <v>18484.170410250001</v>
       </c>
       <c r="E131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -4453,7 +4453,7 @@
         <v>18399.892089749999</v>
       </c>
       <c r="E132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -4470,7 +4470,7 @@
         <v>18576.591797249999</v>
       </c>
       <c r="E133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -4487,7 +4487,7 @@
         <v>18927.038085750002</v>
       </c>
       <c r="E134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -4504,7 +4504,7 @@
         <v>19012.514648250002</v>
       </c>
       <c r="E135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -4521,7 +4521,7 @@
         <v>18927.007324499999</v>
       </c>
       <c r="E136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -4538,7 +4538,7 @@
         <v>19109.370117000002</v>
       </c>
       <c r="E137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -4555,7 +4555,7 @@
         <v>19013.646972750001</v>
       </c>
       <c r="E138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -4572,7 +4572,7 @@
         <v>18932.910644250001</v>
       </c>
       <c r="E139" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -4589,7 +4589,7 @@
         <v>18750.622558499999</v>
       </c>
       <c r="E140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -4606,7 +4606,7 @@
         <v>18674.827148250002</v>
       </c>
       <c r="E141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -4623,7 +4623,7 @@
         <v>19175.324706750001</v>
       </c>
       <c r="E142" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -4640,7 +4640,7 @@
         <v>19743.120117000002</v>
       </c>
       <c r="E143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -4657,7 +4657,7 @@
         <v>19667.317382999998</v>
       </c>
       <c r="E144" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -4674,7 +4674,7 @@
         <v>19726.357910250001</v>
       </c>
       <c r="E145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -4691,7 +4691,7 @@
         <v>19853.70703125</v>
       </c>
       <c r="E146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -4708,7 +4708,7 @@
         <v>20091.810058499999</v>
       </c>
       <c r="E147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -4725,7 +4725,7 @@
         <v>19970.745117000002</v>
       </c>
       <c r="E148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -4742,7 +4742,7 @@
         <v>19947.038085750002</v>
       </c>
       <c r="E149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -4759,7 +4759,7 @@
         <v>19787.677734749999</v>
       </c>
       <c r="E150" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -4776,7 +4776,7 @@
         <v>19784.961914249998</v>
       </c>
       <c r="E151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -4793,7 +4793,7 @@
         <v>19762.004882999998</v>
       </c>
       <c r="E152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -4810,7 +4810,7 @@
         <v>19856.685058499999</v>
       </c>
       <c r="E153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -4827,7 +4827,7 @@
         <v>19911.509765999999</v>
       </c>
       <c r="E154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -4844,7 +4844,7 @@
         <v>20010.276855749999</v>
       </c>
       <c r="E155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -4861,7 +4861,7 @@
         <v>19889.54296875</v>
       </c>
       <c r="E156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -4878,7 +4878,7 @@
         <v>19710.569824499999</v>
       </c>
       <c r="E157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -4895,7 +4895,7 @@
         <v>19557.158203499999</v>
       </c>
       <c r="E158" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -4912,7 +4912,7 @@
         <v>19522.762206750001</v>
       </c>
       <c r="E159" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -4929,7 +4929,7 @@
         <v>19551.216797249999</v>
       </c>
       <c r="E160" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -4946,7 +4946,7 @@
         <v>19550.310058499999</v>
       </c>
       <c r="E161" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -4963,7 +4963,7 @@
         <v>19447.072265999999</v>
       </c>
       <c r="E162" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -4980,7 +4980,7 @@
         <v>19315.740234749999</v>
       </c>
       <c r="E163" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -4997,7 +4997,7 @@
         <v>19390.598144250001</v>
       </c>
       <c r="E164" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -5014,7 +5014,7 @@
         <v>19363.79296875</v>
       </c>
       <c r="E165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -5031,7 +5031,7 @@
         <v>19410.629882999998</v>
       </c>
       <c r="E166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -5048,7 +5048,7 @@
         <v>19403.279297249999</v>
       </c>
       <c r="E167" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -5065,7 +5065,7 @@
         <v>19354.461914249998</v>
       </c>
       <c r="E168" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -5082,7 +5082,7 @@
         <v>19409.827148250002</v>
       </c>
       <c r="E169" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -5099,7 +5099,7 @@
         <v>19451.100585750002</v>
       </c>
       <c r="E170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -5116,7 +5116,7 @@
         <v>19526.475585750002</v>
       </c>
       <c r="E171" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -5133,7 +5133,7 @@
         <v>19528.387206750001</v>
       </c>
       <c r="E172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -5150,7 +5150,7 @@
         <v>19412.033203499999</v>
       </c>
       <c r="E173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -5167,7 +5167,7 @@
         <v>19266.435058499999</v>
       </c>
       <c r="E174" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -5184,7 +5184,7 @@
         <v>19206.014648250002</v>
       </c>
       <c r="E175" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -5201,7 +5201,7 @@
         <v>19291.822265999999</v>
       </c>
       <c r="E176" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -5218,7 +5218,7 @@
         <v>19338.675293249999</v>
       </c>
       <c r="E177" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -5235,7 +5235,7 @@
         <v>19287.307617000002</v>
       </c>
       <c r="E178" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -5252,7 +5252,7 @@
         <v>19141.245117000002</v>
       </c>
       <c r="E179" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -5269,7 +5269,7 @@
         <v>18971.228027249999</v>
       </c>
       <c r="E180" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -5286,7 +5286,7 @@
         <v>18724.327148250002</v>
       </c>
       <c r="E181" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -5303,7 +5303,7 @@
         <v>18901.401855749999</v>
       </c>
       <c r="E182" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -5320,7 +5320,7 @@
         <v>18865.447265999999</v>
       </c>
       <c r="E183" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -5337,7 +5337,7 @@
         <v>18917.160644250001</v>
       </c>
       <c r="E184" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -5354,7 +5354,7 @@
         <v>19119.517089749999</v>
       </c>
       <c r="E185" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -5371,7 +5371,7 @@
         <v>19168.110351749998</v>
       </c>
       <c r="E186" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -5388,7 +5388,7 @@
         <v>19163.737793249999</v>
       </c>
       <c r="E187" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -5405,7 +5405,7 @@
         <v>19036.035644250001</v>
       </c>
       <c r="E188" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -5422,7 +5422,7 @@
         <v>18993.877441500001</v>
       </c>
       <c r="E189" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -5439,7 +5439,7 @@
         <v>18840.052734749999</v>
       </c>
       <c r="E190" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -5456,7 +5456,7 @@
         <v>18958.740234749999</v>
       </c>
       <c r="E191" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -5473,7 +5473,7 @@
         <v>19008.908203499999</v>
       </c>
       <c r="E192" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -5490,7 +5490,7 @@
         <v>18965.535644250001</v>
       </c>
       <c r="E193" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -5507,7 +5507,7 @@
         <v>19027.552734749999</v>
       </c>
       <c r="E194" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -5524,7 +5524,7 @@
         <v>19097.370117000002</v>
       </c>
       <c r="E195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -5541,7 +5541,7 @@
         <v>18835.163085750002</v>
       </c>
       <c r="E196" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -5558,7 +5558,7 @@
         <v>18819.322265999999</v>
       </c>
       <c r="E197" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -5575,7 +5575,7 @@
         <v>18737.497558499999</v>
       </c>
       <c r="E198" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -5592,7 +5592,7 @@
         <v>18739.762206750001</v>
       </c>
       <c r="E199" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -5609,7 +5609,7 @@
         <v>18789.464355749999</v>
       </c>
       <c r="E200" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -5626,7 +5626,7 @@
         <v>18825.839355749999</v>
       </c>
       <c r="E201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -5643,7 +5643,7 @@
         <v>18742.20703125</v>
       </c>
       <c r="E202" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -5660,7 +5660,7 @@
         <v>18734.73046875</v>
       </c>
       <c r="E203" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -5677,7 +5677,7 @@
         <v>18667.545410250001</v>
       </c>
       <c r="E204" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -5694,7 +5694,7 @@
         <v>18602.175293249999</v>
       </c>
       <c r="E205" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -5711,7 +5711,7 @@
         <v>18497.865234749999</v>
       </c>
       <c r="E206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -5728,7 +5728,7 @@
         <v>18605.228027249999</v>
       </c>
       <c r="E207" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -5745,7 +5745,7 @@
         <v>18388.822265999999</v>
       </c>
       <c r="E208" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -5762,7 +5762,7 @@
         <v>18211.103027249999</v>
       </c>
       <c r="E209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -5779,7 +5779,7 @@
         <v>18133.079589749999</v>
       </c>
       <c r="E210" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -5796,7 +5796,7 @@
         <v>18113.137206750001</v>
       </c>
       <c r="E211" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -5813,7 +5813,7 @@
         <v>18058.170410250001</v>
       </c>
       <c r="E212" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -5830,7 +5830,7 @@
         <v>18202.283203499999</v>
       </c>
       <c r="E213" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -5847,7 +5847,7 @@
         <v>17997.908203499999</v>
       </c>
       <c r="E214" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -5864,7 +5864,7 @@
         <v>18086.865234749999</v>
       </c>
       <c r="E215" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -5881,7 +5881,7 @@
         <v>18180.915527249999</v>
       </c>
       <c r="E216" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -5898,7 +5898,7 @@
         <v>18063.29296875</v>
       </c>
       <c r="E217" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -5915,7 +5915,7 @@
         <v>18395.228027249999</v>
       </c>
       <c r="E218" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -5932,7 +5932,7 @@
         <v>18304.973144250001</v>
       </c>
       <c r="E219" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -5949,7 +5949,7 @@
         <v>18471.29296875</v>
       </c>
       <c r="E220" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -5966,7 +5966,7 @@
         <v>18425.8125</v>
       </c>
       <c r="E221" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -5983,7 +5983,7 @@
         <v>18619.327148250002</v>
       </c>
       <c r="E222" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -6000,7 +6000,7 @@
         <v>18670.785644250001</v>
       </c>
       <c r="E223" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -6017,7 +6017,7 @@
         <v>18853.949706750001</v>
       </c>
       <c r="E224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -6034,7 +6034,7 @@
         <v>18893.564941500001</v>
       </c>
       <c r="E225" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -6051,7 +6051,7 @@
         <v>18935.279297249999</v>
       </c>
       <c r="E226" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -6068,7 +6068,7 @@
         <v>18967.649414249998</v>
       </c>
       <c r="E227" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -6085,7 +6085,7 @@
         <v>18874.274414249998</v>
       </c>
       <c r="E228" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -6102,7 +6102,7 @@
         <v>18873.360351749998</v>
       </c>
       <c r="E229" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -6119,7 +6119,7 @@
         <v>18640.60546875</v>
       </c>
       <c r="E230" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -6136,7 +6136,7 @@
         <v>18533.115234749999</v>
       </c>
       <c r="E231" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -6153,7 +6153,7 @@
         <v>18541.60546875</v>
       </c>
       <c r="E232" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -6170,7 +6170,7 @@
         <v>18406.567382999998</v>
       </c>
       <c r="E233" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -6187,7 +6187,7 @@
         <v>18264.112793249999</v>
       </c>
       <c r="E234" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -6204,7 +6204,7 @@
         <v>18344.317382999998</v>
       </c>
       <c r="E235" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -6221,7 +6221,7 @@
         <v>18185.879882999998</v>
       </c>
       <c r="E236" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -6238,7 +6238,7 @@
         <v>18515.857910250001</v>
       </c>
       <c r="E237" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -6255,7 +6255,7 @@
         <v>18454.425293249999</v>
       </c>
       <c r="E238" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -6272,7 +6272,7 @@
         <v>18500.339355749999</v>
       </c>
       <c r="E239" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -6289,7 +6289,7 @@
         <v>18609.045410250001</v>
       </c>
       <c r="E240" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -6306,7 +6306,7 @@
         <v>18662.295410250001</v>
       </c>
       <c r="E241" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -6323,7 +6323,7 @@
         <v>18498.651855749999</v>
       </c>
       <c r="E242" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -6340,7 +6340,7 @@
         <v>18479.550293249999</v>
       </c>
       <c r="E243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -6357,7 +6357,7 @@
         <v>18504.591797249999</v>
       </c>
       <c r="E244" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -6374,7 +6374,7 @@
         <v>18472.04296875</v>
       </c>
       <c r="E245" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -6391,7 +6391,7 @@
         <v>18646.889648250002</v>
       </c>
       <c r="E246" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -6408,7 +6408,7 @@
         <v>18538.125</v>
       </c>
       <c r="E247" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -6425,7 +6425,7 @@
         <v>18431.932617000002</v>
       </c>
       <c r="E248" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -6442,7 +6442,7 @@
         <v>18242.901855749999</v>
       </c>
       <c r="E249" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -6459,7 +6459,7 @@
         <v>18148.754882999998</v>
       </c>
       <c r="E250" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -6476,7 +6476,7 @@
         <v>18197.564941500001</v>
       </c>
       <c r="E251" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -6493,7 +6493,7 @@
         <v>17834.151855749999</v>
       </c>
       <c r="E252" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -6510,7 +6510,7 @@
         <v>17648.482910250001</v>
       </c>
       <c r="E253" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -6527,7 +6527,7 @@
         <v>17914.725585750002</v>
       </c>
       <c r="E254" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -6544,7 +6544,7 @@
         <v>17856.142089749999</v>
       </c>
       <c r="E255" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -6561,7 +6561,7 @@
         <v>18122.310058499999</v>
       </c>
       <c r="E256" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -6578,7 +6578,7 @@
         <v>18145.836914249998</v>
       </c>
       <c r="E257" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -6595,7 +6595,7 @@
         <v>18096.540527249999</v>
       </c>
       <c r="E258" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -6612,7 +6612,7 @@
         <v>17867.310058499999</v>
       </c>
       <c r="E259" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -6629,7 +6629,7 @@
         <v>17871.547851749998</v>
       </c>
       <c r="E260" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -6646,7 +6646,7 @@
         <v>18246.404297249999</v>
       </c>
       <c r="E261" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -6663,7 +6663,7 @@
         <v>18281.279297249999</v>
       </c>
       <c r="E262" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -6680,7 +6680,7 @@
         <v>18417.771972750001</v>
       </c>
       <c r="E263" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -6697,7 +6697,7 @@
         <v>18540.817382999998</v>
       </c>
       <c r="E264" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -6714,7 +6714,7 @@
         <v>18511.341797249999</v>
       </c>
       <c r="E265" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -6731,7 +6731,7 @@
         <v>18360.149414249998</v>
       </c>
       <c r="E266" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -6748,7 +6748,7 @@
         <v>18182.805175500001</v>
       </c>
       <c r="E267" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -6765,7 +6765,7 @@
         <v>18227.115234749999</v>
       </c>
       <c r="E268" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -6782,7 +6782,7 @@
         <v>18113.151855749999</v>
       </c>
       <c r="E269" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -6799,7 +6799,7 @@
         <v>18149.211914249998</v>
       </c>
       <c r="E270" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -6816,7 +6816,7 @@
         <v>17966.122558499999</v>
       </c>
       <c r="E271" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -6833,7 +6833,7 @@
         <v>17803.649414249998</v>
       </c>
       <c r="E272" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -6850,7 +6850,7 @@
         <v>18235.432617000002</v>
       </c>
       <c r="E273" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -6867,7 +6867,7 @@
         <v>17642.370117000002</v>
       </c>
       <c r="E274" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -6884,7 +6884,7 @@
         <v>17748.247558499999</v>
       </c>
       <c r="E275" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -6901,7 +6901,7 @@
         <v>17508.389648250002</v>
       </c>
       <c r="E276" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -6918,7 +6918,7 @@
         <v>17946.098144250001</v>
       </c>
       <c r="E277" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -6935,7 +6935,7 @@
         <v>17796.502441500001</v>
       </c>
       <c r="E278" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -6952,7 +6952,7 @@
         <v>17781.547851749998</v>
       </c>
       <c r="E279" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -6969,7 +6969,7 @@
         <v>17805.915527249999</v>
       </c>
       <c r="E280" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -6986,7 +6986,7 @@
         <v>17631.795410250001</v>
       </c>
       <c r="E281" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -7003,7 +7003,7 @@
         <v>17954.055175500001</v>
       </c>
       <c r="E282" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -7020,7 +7020,7 @@
         <v>18491.550293249999</v>
       </c>
       <c r="E283" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -7037,7 +7037,7 @@
         <v>18487.98046875</v>
       </c>
       <c r="E284" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -7054,7 +7054,7 @@
         <v>18339.85546875</v>
       </c>
       <c r="E285" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -7071,7 +7071,7 @@
         <v>18642.817382999998</v>
       </c>
       <c r="E286" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -7088,7 +7088,7 @@
         <v>18564.966797249999</v>
       </c>
       <c r="E287" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -7105,7 +7105,7 @@
         <v>18501.622558499999</v>
       </c>
       <c r="E288" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -7122,7 +7122,7 @@
         <v>18710.625</v>
       </c>
       <c r="E289" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -7139,7 +7139,7 @@
         <v>18864.014648250002</v>
       </c>
       <c r="E290" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -7156,7 +7156,7 @@
         <v>18753.66796875</v>
       </c>
       <c r="E291" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -7173,7 +7173,7 @@
         <v>18527.288085750002</v>
       </c>
       <c r="E292" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -7190,7 +7190,7 @@
         <v>18401.339355749999</v>
       </c>
       <c r="E293" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -7207,7 +7207,7 @@
         <v>18531.307617000002</v>
       </c>
       <c r="E294" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -7224,7 +7224,7 @@
         <v>18290.362793249999</v>
       </c>
       <c r="E295" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -7241,7 +7241,7 @@
         <v>18163.319824499999</v>
       </c>
       <c r="E296" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
@@ -7258,7 +7258,7 @@
         <v>18331.920410250001</v>
       </c>
       <c r="E297" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -7275,7 +7275,7 @@
         <v>18766.814941500001</v>
       </c>
       <c r="E298" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
@@ -7292,7 +7292,7 @@
         <v>19055.872558499999</v>
       </c>
       <c r="E299" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
@@ -7309,7 +7309,7 @@
         <v>19048.920410250001</v>
       </c>
       <c r="E300" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -7326,7 +7326,7 @@
         <v>18771.547851749998</v>
       </c>
       <c r="E301" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -7343,7 +7343,7 @@
         <v>18641.122558499999</v>
       </c>
       <c r="E302" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -7360,7 +7360,7 @@
         <v>18594.742675500001</v>
       </c>
       <c r="E303" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -7377,7 +7377,7 @@
         <v>18663.142089749999</v>
       </c>
       <c r="E304" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -7394,7 +7394,7 @@
         <v>18861.944824499999</v>
       </c>
       <c r="E305" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
@@ -7411,7 +7411,7 @@
         <v>18607.064941500001</v>
       </c>
       <c r="E306" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -7428,7 +7428,7 @@
         <v>18367.76953125</v>
       </c>
       <c r="E307" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -7445,7 +7445,7 @@
         <v>18315.771972750001</v>
       </c>
       <c r="E308" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -7462,7 +7462,7 @@
         <v>18217.860351749998</v>
       </c>
       <c r="E309" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -7479,7 +7479,7 @@
         <v>17520.216797249999</v>
       </c>
       <c r="E310" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
@@ -7496,7 +7496,7 @@
         <v>17886.922851749998</v>
       </c>
       <c r="E311" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -7513,7 +7513,7 @@
         <v>18589.079589749999</v>
       </c>
       <c r="E312" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
@@ -7530,7 +7530,7 @@
         <v>17834.055175500001</v>
       </c>
       <c r="E313" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -7547,7 +7547,7 @@
         <v>17942.910644250001</v>
       </c>
       <c r="E314" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -7564,7 +7564,7 @@
         <v>19117.995117000002</v>
       </c>
       <c r="E315" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -7581,7 +7581,7 @@
         <v>19510.829589749999</v>
       </c>
       <c r="E316" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -7598,7 +7598,7 @@
         <v>19538.235351749998</v>
       </c>
       <c r="E317" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
@@ -7615,7 +7615,7 @@
         <v>19521.314941500001</v>
       </c>
       <c r="E318" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
@@ -7632,7 +7632,7 @@
         <v>19826.504882999998</v>
       </c>
       <c r="E319" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
@@ -7649,7 +7649,7 @@
         <v>19819.012206750001</v>
       </c>
       <c r="E320" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -7666,7 +7666,7 @@
         <v>19694.790527249999</v>
       </c>
       <c r="E321" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -7683,7 +7683,7 @@
         <v>19580.204589749999</v>
       </c>
       <c r="E322" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
@@ -7700,7 +7700,7 @@
         <v>19607.925293249999</v>
       </c>
       <c r="E323" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
@@ -7717,7 +7717,7 @@
         <v>19480.987793249999</v>
       </c>
       <c r="E324" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
@@ -7734,7 +7734,7 @@
         <v>19457.122558499999</v>
       </c>
       <c r="E325" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
@@ -7751,7 +7751,7 @@
         <v>19460.490234749999</v>
       </c>
       <c r="E326" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
@@ -7768,7 +7768,7 @@
         <v>19398.764648250002</v>
       </c>
       <c r="E327" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
@@ -7785,7 +7785,7 @@
         <v>19277.242675500001</v>
       </c>
       <c r="E328" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
@@ -7802,7 +7802,7 @@
         <v>19224.810058499999</v>
       </c>
       <c r="E329" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -7819,7 +7819,7 @@
         <v>19047.142089749999</v>
       </c>
       <c r="E330" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
@@ -7836,7 +7836,7 @@
         <v>18942.742675500001</v>
       </c>
       <c r="E331" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
@@ -7853,7 +7853,7 @@
         <v>18981.307617000002</v>
       </c>
       <c r="E332" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
@@ -7870,7 +7870,7 @@
         <v>18926.557617000002</v>
       </c>
       <c r="E333" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
@@ -7887,7 +7887,7 @@
         <v>18834.007324499999</v>
       </c>
       <c r="E334" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -7904,7 +7904,7 @@
         <v>18722.452148250002</v>
       </c>
       <c r="E335" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
@@ -7921,7 +7921,7 @@
         <v>18619.163085750002</v>
       </c>
       <c r="E336" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -7938,7 +7938,7 @@
         <v>18556.274414249998</v>
       </c>
       <c r="E337" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
@@ -7955,7 +7955,7 @@
         <v>18539.415527249999</v>
       </c>
       <c r="E338" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
@@ -7972,7 +7972,7 @@
         <v>18597.848144250001</v>
       </c>
       <c r="E339" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
@@ -7989,7 +7989,7 @@
         <v>18548.759765999999</v>
       </c>
       <c r="E340" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
@@ -8006,7 +8006,7 @@
         <v>18531.314941500001</v>
       </c>
       <c r="E341" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
@@ -8023,7 +8023,7 @@
         <v>18538.132324499999</v>
       </c>
       <c r="E342" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
@@ -8040,7 +8040,7 @@
         <v>18574.702148250002</v>
       </c>
       <c r="E343" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
@@ -8057,7 +8057,7 @@
         <v>18522.83203125</v>
       </c>
       <c r="E344" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
@@ -8074,7 +8074,7 @@
         <v>18536.699706750001</v>
       </c>
       <c r="E345" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
@@ -8091,7 +8091,7 @@
         <v>18554.670410250001</v>
       </c>
       <c r="E346" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
@@ -8108,7 +8108,7 @@
         <v>18438.329589749999</v>
       </c>
       <c r="E347" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
@@ -8125,7 +8125,7 @@
         <v>18381.495117000002</v>
       </c>
       <c r="E348" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
@@ -8142,7 +8142,7 @@
         <v>18388.725585750002</v>
       </c>
       <c r="E349" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
@@ -8159,7 +8159,7 @@
         <v>18332.872558499999</v>
       </c>
       <c r="E350" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
@@ -8176,7 +8176,7 @@
         <v>18236.055175500001</v>
       </c>
       <c r="E351" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
@@ -8193,7 +8193,7 @@
         <v>18169.125</v>
       </c>
       <c r="E352" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
@@ -8210,7 +8210,7 @@
         <v>18075.930175500001</v>
       </c>
       <c r="E353" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
@@ -8227,7 +8227,7 @@
         <v>18100.867675500001</v>
       </c>
       <c r="E354" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
@@ -8244,7 +8244,7 @@
         <v>18116.459472750001</v>
       </c>
       <c r="E355" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
@@ -8261,7 +8261,7 @@
         <v>18216.142089749999</v>
       </c>
       <c r="E356" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
@@ -8278,7 +8278,7 @@
         <v>17941.425293249999</v>
       </c>
       <c r="E357" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
@@ -8295,7 +8295,7 @@
         <v>18010.350585750002</v>
       </c>
       <c r="E358" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
@@ -8312,7 +8312,7 @@
         <v>17904.442382999998</v>
       </c>
       <c r="E359" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
@@ -8329,7 +8329,7 @@
         <v>17712.83203125</v>
       </c>
       <c r="E360" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
@@ -8346,7 +8346,7 @@
         <v>17658.764648250002</v>
       </c>
       <c r="E361" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
@@ -8363,7 +8363,7 @@
         <v>17663.692382999998</v>
       </c>
       <c r="E362" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
@@ -8380,7 +8380,7 @@
         <v>17630.70703125</v>
       </c>
       <c r="E363" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
@@ -8397,7 +8397,7 @@
         <v>17625.112793249999</v>
       </c>
       <c r="E364" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
@@ -8414,7 +8414,7 @@
         <v>17520.435058499999</v>
       </c>
       <c r="E365" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
@@ -8431,7 +8431,7 @@
         <v>17517.007324499999</v>
       </c>
       <c r="E366" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
@@ -8448,7 +8448,7 @@
         <v>17524.004882999998</v>
       </c>
       <c r="E367" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
@@ -8465,7 +8465,7 @@
         <v>17432.0625</v>
       </c>
       <c r="E368" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
@@ -8482,7 +8482,7 @@
         <v>17453.677734749999</v>
       </c>
       <c r="E369" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
@@ -8499,7 +8499,7 @@
         <v>17507.504882999998</v>
       </c>
       <c r="E370" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
@@ -8516,7 +8516,7 @@
         <v>17544.720703499999</v>
       </c>
       <c r="E371" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
@@ -8533,7 +8533,7 @@
         <v>17482.514648250002</v>
       </c>
       <c r="E372" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
@@ -8550,7 +8550,7 @@
         <v>17632.920410250001</v>
       </c>
       <c r="E373" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
@@ -8567,7 +8567,7 @@
         <v>17613.142089749999</v>
       </c>
       <c r="E374" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
@@ -8584,7 +8584,7 @@
         <v>17640.5625</v>
       </c>
       <c r="E375" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
@@ -8601,7 +8601,7 @@
         <v>17611.177734749999</v>
       </c>
       <c r="E376" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
@@ -8618,7 +8618,7 @@
         <v>17513.235351749998</v>
       </c>
       <c r="E377" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
@@ -8635,7 +8635,7 @@
         <v>17541.682617000002</v>
       </c>
       <c r="E378" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
@@ -8652,7 +8652,7 @@
         <v>17500.79296875</v>
       </c>
       <c r="E379" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
@@ -8669,7 +8669,7 @@
         <v>17495.901855749999</v>
       </c>
       <c r="E380" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
@@ -8686,7 +8686,7 @@
         <v>17514.870117000002</v>
       </c>
       <c r="E381" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
@@ -8703,7 +8703,7 @@
         <v>17535.66796875</v>
       </c>
       <c r="E382" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
@@ -8720,7 +8720,7 @@
         <v>17438.33203125</v>
       </c>
       <c r="E383" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
@@ -8737,7 +8737,7 @@
         <v>17507.422851749998</v>
       </c>
       <c r="E384" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
@@ -8754,7 +8754,7 @@
         <v>17455.470703499999</v>
       </c>
       <c r="E385" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
@@ -8771,7 +8771,7 @@
         <v>17401.334472750001</v>
       </c>
       <c r="E386" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
@@ -8788,7 +8788,7 @@
         <v>17289.502441500001</v>
       </c>
       <c r="E387" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
@@ -8805,7 +8805,7 @@
         <v>17315.0625</v>
       </c>
       <c r="E388" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
@@ -8822,7 +8822,7 @@
         <v>17211.172851749998</v>
       </c>
       <c r="E389" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
@@ -8839,7 +8839,7 @@
         <v>17165.339355749999</v>
       </c>
       <c r="E390" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
@@ -8856,7 +8856,7 @@
         <v>17141.947265999999</v>
       </c>
       <c r="E391" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
@@ -8873,7 +8873,7 @@
         <v>17115.848144250001</v>
       </c>
       <c r="E392" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
@@ -8890,7 +8890,7 @@
         <v>17116.245117000002</v>
       </c>
       <c r="E393" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
@@ -8907,7 +8907,7 @@
         <v>17078.242675500001</v>
       </c>
       <c r="E394" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
@@ -8924,7 +8924,7 @@
         <v>17054.535644250001</v>
       </c>
       <c r="E395" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
@@ -8941,7 +8941,7 @@
         <v>17048.137206750001</v>
       </c>
       <c r="E396" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
@@ -8958,7 +8958,7 @@
         <v>16991.35546875</v>
       </c>
       <c r="E397" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
@@ -8975,7 +8975,7 @@
         <v>16974.600585750002</v>
       </c>
       <c r="E398" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
@@ -8992,7 +8992,7 @@
         <v>16922.175293249999</v>
       </c>
       <c r="E399" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
@@ -9009,7 +9009,7 @@
         <v>16812</v>
       </c>
       <c r="E400" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
@@ -9026,7 +9026,7 @@
         <v>16749.720703499999</v>
       </c>
       <c r="E401" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
@@ -9043,7 +9043,7 @@
         <v>16716.728027249999</v>
       </c>
       <c r="E402" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
@@ -9060,7 +9060,7 @@
         <v>16691.197265999999</v>
       </c>
       <c r="E403" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
@@ -9077,7 +9077,7 @@
         <v>16709.639648250002</v>
       </c>
       <c r="E404" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
@@ -9094,7 +9094,7 @@
         <v>16664.33203125</v>
       </c>
       <c r="E405" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
@@ -9111,7 +9111,7 @@
         <v>16724.685058499999</v>
       </c>
       <c r="E406" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
@@ -9128,7 +9128,7 @@
         <v>16767.413085750002</v>
       </c>
       <c r="E407" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
@@ -9145,7 +9145,7 @@
         <v>16736.009765999999</v>
       </c>
       <c r="E408" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
@@ -9162,7 +9162,7 @@
         <v>16755.533203499999</v>
       </c>
       <c r="E409" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
@@ -9179,7 +9179,7 @@
         <v>16712.512206750001</v>
       </c>
       <c r="E410" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
@@ -9196,7 +9196,7 @@
         <v>16660.889648250002</v>
       </c>
       <c r="E411" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
@@ -9213,7 +9213,7 @@
         <v>16601.444824499999</v>
       </c>
       <c r="E412" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
@@ -9230,7 +9230,7 @@
         <v>16571.841797249999</v>
       </c>
       <c r="E413" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
@@ -9247,7 +9247,7 @@
         <v>16565.317382999998</v>
       </c>
       <c r="E414" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
@@ -9264,7 +9264,7 @@
         <v>16445.841797249999</v>
       </c>
       <c r="E415" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
@@ -9281,7 +9281,7 @@
         <v>16298.339355749999</v>
       </c>
       <c r="E416" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
@@ -9298,7 +9298,7 @@
         <v>16309.283203499999</v>
       </c>
       <c r="E417" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
@@ -9315,7 +9315,7 @@
         <v>16345.552734749999</v>
       </c>
       <c r="E418" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
@@ -9332,7 +9332,7 @@
         <v>16282.223144250001</v>
       </c>
       <c r="E419" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
@@ -9349,7 +9349,7 @@
         <v>16481.182617000002</v>
       </c>
       <c r="E420" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
@@ -9366,7 +9366,7 @@
         <v>16432.875</v>
       </c>
       <c r="E421" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
@@ -9383,7 +9383,7 @@
         <v>16379.603027249999</v>
       </c>
       <c r="E422" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
@@ -9400,7 +9400,7 @@
         <v>16255.185058499999</v>
       </c>
       <c r="E423" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
@@ -9417,7 +9417,7 @@
         <v>16325.954589749999</v>
       </c>
       <c r="E424" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
@@ -9434,7 +9434,7 @@
         <v>16359.607910250001</v>
       </c>
       <c r="E425" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
@@ -9451,7 +9451,7 @@
         <v>16324.365234749999</v>
       </c>
       <c r="E426" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
@@ -9468,7 +9468,7 @@
         <v>16356.29296875</v>
       </c>
       <c r="E427" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
@@ -9485,7 +9485,7 @@
         <v>16303.598144250001</v>
       </c>
       <c r="E428" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
@@ -9502,7 +9502,7 @@
         <v>16200.254882999998</v>
       </c>
       <c r="E429" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
@@ -9519,7 +9519,7 @@
         <v>16231.223144250001</v>
       </c>
       <c r="E430" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
@@ -9536,7 +9536,7 @@
         <v>16312.740234749999</v>
       </c>
       <c r="E431" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
@@ -9553,7 +9553,7 @@
         <v>16501.853027249999</v>
       </c>
       <c r="E432" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
@@ -9570,7 +9570,7 @@
         <v>16478.610351749998</v>
       </c>
       <c r="E433" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
@@ -9587,7 +9587,7 @@
         <v>16459.23046875</v>
       </c>
       <c r="E434" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
@@ -9604,7 +9604,7 @@
         <v>16382.055175500001</v>
       </c>
       <c r="E435" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
@@ -9621,7 +9621,7 @@
         <v>16382.954589749999</v>
       </c>
       <c r="E436" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
@@ -9638,7 +9638,7 @@
         <v>16497.517089749999</v>
       </c>
       <c r="E437" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
@@ -9655,7 +9655,7 @@
         <v>16542.966797249999</v>
       </c>
       <c r="E438" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
@@ -9672,7 +9672,7 @@
         <v>16561.478027249999</v>
       </c>
       <c r="E439" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
@@ -9689,7 +9689,7 @@
         <v>16518.48046875</v>
       </c>
       <c r="E440" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
@@ -9706,7 +9706,7 @@
         <v>16493.490234749999</v>
       </c>
       <c r="E441" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
@@ -9723,7 +9723,7 @@
         <v>16475.595703499999</v>
       </c>
       <c r="E442" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
@@ -9740,7 +9740,7 @@
         <v>16455.607910250001</v>
       </c>
       <c r="E443" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
@@ -9757,7 +9757,7 @@
         <v>16396.283203499999</v>
       </c>
       <c r="E444" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
@@ -9774,7 +9774,7 @@
         <v>16317.089355749999</v>
       </c>
       <c r="E445" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
@@ -9791,7 +9791,7 @@
         <v>16265.887206750001</v>
       </c>
       <c r="E446" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
@@ -9808,7 +9808,7 @@
         <v>16262.466797249999</v>
       </c>
       <c r="E447" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
@@ -9825,7 +9825,7 @@
         <v>16183.026855749999</v>
       </c>
       <c r="E448" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
@@ -9842,7 +9842,7 @@
         <v>16122.098144250001</v>
       </c>
       <c r="E449" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
@@ -9859,7 +9859,7 @@
         <v>16127.834472750001</v>
       </c>
       <c r="E450" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
@@ -9876,7 +9876,7 @@
         <v>16182.720703499999</v>
       </c>
       <c r="E451" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
@@ -9893,7 +9893,7 @@
         <v>16174.379882999998</v>
       </c>
       <c r="E452" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
@@ -9910,7 +9910,7 @@
         <v>16103.35546875</v>
       </c>
       <c r="E453" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
@@ -9927,7 +9927,7 @@
         <v>16213.245117000002</v>
       </c>
       <c r="E454" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
@@ -9944,7 +9944,7 @@
         <v>16141.290527249999</v>
       </c>
       <c r="E455" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
@@ -9961,7 +9961,7 @@
         <v>16134.26953125</v>
       </c>
       <c r="E456" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
@@ -9978,7 +9978,7 @@
         <v>16100.947265999999</v>
       </c>
       <c r="E457" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
@@ -9995,7 +9995,7 @@
         <v>15959.475585750002</v>
       </c>
       <c r="E458" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
@@ -10012,7 +10012,7 @@
         <v>16028.33203125</v>
       </c>
       <c r="E459" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
@@ -10029,7 +10029,7 @@
         <v>16013.040527249999</v>
       </c>
       <c r="E460" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
@@ -10046,7 +10046,7 @@
         <v>15979.035644250001</v>
       </c>
       <c r="E461" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
@@ -10063,7 +10063,7 @@
         <v>16053.569824499999</v>
       </c>
       <c r="E462" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
@@ -10080,7 +10080,7 @@
         <v>16043.783203499999</v>
       </c>
       <c r="E463" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
@@ -10097,7 +10097,7 @@
         <v>15993.810058499999</v>
       </c>
       <c r="E464" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
@@ -10114,7 +10114,7 @@
         <v>15897.810058499999</v>
       </c>
       <c r="E465" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
@@ -10131,7 +10131,7 @@
         <v>16029.26953125</v>
       </c>
       <c r="E466" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
@@ -10148,7 +10148,7 @@
         <v>15982.995117000002</v>
       </c>
       <c r="E467" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
@@ -10165,7 +10165,7 @@
         <v>16035.9375</v>
       </c>
       <c r="E468" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
@@ -10182,7 +10182,7 @@
         <v>16000.41796875</v>
       </c>
       <c r="E469" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
@@ -10199,7 +10199,7 @@
         <v>16046.107910250001</v>
       </c>
       <c r="E470" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
@@ -10216,7 +10216,7 @@
         <v>16042.5</v>
       </c>
       <c r="E471" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
@@ -10233,7 +10233,7 @@
         <v>16098.180175500001</v>
       </c>
       <c r="E472" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
@@ -10250,7 +10250,7 @@
         <v>16077.060058499999</v>
       </c>
       <c r="E473" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
@@ -10267,7 +10267,7 @@
         <v>15981.007324499999</v>
       </c>
       <c r="E474" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
@@ -10284,7 +10284,7 @@
         <v>15946.401855749999</v>
       </c>
       <c r="E475" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
@@ -10301,7 +10301,7 @@
         <v>15970.567382999998</v>
       </c>
       <c r="E476" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
@@ -10318,7 +10318,7 @@
         <v>15942.622558499999</v>
       </c>
       <c r="E477" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
@@ -10335,7 +10335,7 @@
         <v>15889.612793249999</v>
       </c>
       <c r="E478" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
@@ -10352,7 +10352,7 @@
         <v>15869.586914249998</v>
       </c>
       <c r="E479" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
@@ -10369,7 +10369,7 @@
         <v>15853.620117000002</v>
       </c>
       <c r="E480" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
@@ -10386,7 +10386,7 @@
         <v>15834.982910250001</v>
       </c>
       <c r="E481" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
@@ -10403,7 +10403,7 @@
         <v>15838.845703499999</v>
       </c>
       <c r="E482" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
@@ -10420,7 +10420,7 @@
         <v>15876.517089749999</v>
       </c>
       <c r="E483" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
@@ -10437,7 +10437,7 @@
         <v>15847.170410250001</v>
       </c>
       <c r="E484" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
@@ -10454,7 +10454,7 @@
         <v>15745.665527249999</v>
       </c>
       <c r="E485" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
@@ -10471,7 +10471,7 @@
         <v>15706.927734749999</v>
       </c>
       <c r="E486" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
@@ -10488,7 +10488,7 @@
         <v>15757.199706750001</v>
       </c>
       <c r="E487" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
@@ -10505,7 +10505,7 @@
         <v>15787.867675500001</v>
       </c>
       <c r="E488" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
@@ -10522,7 +10522,7 @@
         <v>15788.557617000002</v>
       </c>
       <c r="E489" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
@@ -10539,7 +10539,7 @@
         <v>15700.185058499999</v>
       </c>
       <c r="E490" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
@@ -10556,7 +10556,7 @@
         <v>15672.165527249999</v>
       </c>
       <c r="E491" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
@@ -10573,7 +10573,7 @@
         <v>15645.120117000002</v>
       </c>
       <c r="E492" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
@@ -10590,7 +10590,7 @@
         <v>15515.954589749999</v>
       </c>
       <c r="E493" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
@@ -10607,7 +10607,7 @@
         <v>15415.086914249998</v>
       </c>
       <c r="E494" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
@@ -10624,7 +10624,7 @@
         <v>15450.810058499999</v>
       </c>
       <c r="E495" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
@@ -10641,7 +10641,7 @@
         <v>15699.660644250001</v>
       </c>
       <c r="E496" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
@@ -10658,7 +10658,7 @@
         <v>15692.723144250001</v>
       </c>
       <c r="E497" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
@@ -10675,7 +10675,7 @@
         <v>15652.305175500001</v>
       </c>
       <c r="E498" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
@@ -10692,7 +10692,7 @@
         <v>15599.175293249999</v>
       </c>
       <c r="E499" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
@@ -10709,7 +10709,7 @@
         <v>15663.112793249999</v>
       </c>
       <c r="E500" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
@@ -10726,7 +10726,7 @@
         <v>15703.529297249999</v>
       </c>
       <c r="E501" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
@@ -10743,7 +10743,7 @@
         <v>15728.288085750002</v>
       </c>
       <c r="E502" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
@@ -10760,7 +10760,7 @@
         <v>15678.75</v>
       </c>
       <c r="E503" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
@@ -10777,7 +10777,7 @@
         <v>15635.961914249998</v>
       </c>
       <c r="E504" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
@@ -10794,7 +10794,7 @@
         <v>15655.634765999999</v>
       </c>
       <c r="E505" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
@@ -10811,7 +10811,7 @@
         <v>15678.045410250001</v>
       </c>
       <c r="E506" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
@@ -10828,7 +10828,7 @@
         <v>15673.785644250001</v>
       </c>
       <c r="E507" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
@@ -10845,7 +10845,7 @@
         <v>15695.0625</v>
       </c>
       <c r="E508" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
@@ -10862,7 +10862,7 @@
         <v>15701.850585750002</v>
       </c>
       <c r="E509" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
@@ -10879,7 +10879,7 @@
         <v>15729.202148250002</v>
       </c>
       <c r="E510" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
@@ -10896,7 +10896,7 @@
         <v>15682.035644250001</v>
       </c>
       <c r="E511" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
@@ -10913,7 +10913,7 @@
         <v>15542.692382999998</v>
       </c>
       <c r="E512" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
@@ -10930,7 +10930,7 @@
         <v>15378.997558499999</v>
       </c>
       <c r="E513" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
@@ -10947,7 +10947,7 @@
         <v>15305.009765999999</v>
       </c>
       <c r="E514" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
@@ -10964,7 +10964,7 @@
         <v>15284.663085750002</v>
       </c>
       <c r="E515" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
@@ -10981,7 +10981,7 @@
         <v>15346.709472750001</v>
       </c>
       <c r="E516" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
@@ -10998,7 +10998,7 @@
         <v>15363.5625</v>
       </c>
       <c r="E517" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
@@ -11015,7 +11015,7 @@
         <v>15339.9375</v>
       </c>
       <c r="E518" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
@@ -11032,7 +11032,7 @@
         <v>15414.771972750001</v>
       </c>
       <c r="E519" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
@@ -11049,7 +11049,7 @@
         <v>15384.420410250001</v>
       </c>
       <c r="E520" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
@@ -11066,7 +11066,7 @@
         <v>15461.14453125</v>
       </c>
       <c r="E521" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
@@ -11083,7 +11083,7 @@
         <v>15455.211914249998</v>
       </c>
       <c r="E522" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
@@ -11100,7 +11100,7 @@
         <v>15459.127441500001</v>
       </c>
       <c r="E523" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
@@ -11117,7 +11117,7 @@
         <v>15479.663085750002</v>
       </c>
       <c r="E524" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
@@ -11134,7 +11134,7 @@
         <v>15453.975585750002</v>
       </c>
       <c r="E525" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.2">
@@ -11151,7 +11151,7 @@
         <v>15388.365234749999</v>
       </c>
       <c r="E526" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
@@ -11168,7 +11168,7 @@
         <v>15495.509765999999</v>
       </c>
       <c r="E527" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
@@ -11185,7 +11185,7 @@
         <v>15482.699706750001</v>
       </c>
       <c r="E528" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
@@ -11202,7 +11202,7 @@
         <v>15468.771972750001</v>
       </c>
       <c r="E529" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
@@ -11219,7 +11219,7 @@
         <v>15390.074706750001</v>
       </c>
       <c r="E530" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
@@ -11236,7 +11236,7 @@
         <v>15309.600585750002</v>
       </c>
       <c r="E531" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
@@ -11253,7 +11253,7 @@
         <v>15397.252441500001</v>
       </c>
       <c r="E532" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
@@ -11270,7 +11270,7 @@
         <v>15463.964355749999</v>
       </c>
       <c r="E533" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.2">
@@ -11287,7 +11287,7 @@
         <v>15434.211914249998</v>
       </c>
       <c r="E534" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
@@ -11304,7 +11304,7 @@
         <v>15489.944824499999</v>
       </c>
       <c r="E535" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
@@ -11321,7 +11321,7 @@
         <v>15664.274414249998</v>
       </c>
       <c r="E536" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
@@ -11338,7 +11338,7 @@
         <v>15683.302734749999</v>
       </c>
       <c r="E537" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
@@ -11355,7 +11355,7 @@
         <v>15670.125</v>
       </c>
       <c r="E538" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
@@ -11372,7 +11372,7 @@
         <v>15644.699706750001</v>
       </c>
       <c r="E539" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
@@ -11389,7 +11389,7 @@
         <v>15589.732910250001</v>
       </c>
       <c r="E540" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
@@ -11406,7 +11406,7 @@
         <v>15634.283203499999</v>
       </c>
       <c r="E541" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.2">
@@ -11423,7 +11423,7 @@
         <v>15620.745117000002</v>
       </c>
       <c r="E542" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.2">
@@ -11440,7 +11440,7 @@
         <v>15582.870117000002</v>
       </c>
       <c r="E543" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.2">
@@ -11457,7 +11457,7 @@
         <v>15626.685058499999</v>
       </c>
       <c r="E544" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.2">
@@ -11474,7 +11474,7 @@
         <v>15675.944824499999</v>
       </c>
       <c r="E545" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
@@ -11491,7 +11491,7 @@
         <v>15684.08203125</v>
       </c>
       <c r="E546" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.2">
@@ -11508,7 +11508,7 @@
         <v>15715.39453125</v>
       </c>
       <c r="E547" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.2">
@@ -11525,7 +11525,7 @@
         <v>15747.45703125</v>
       </c>
       <c r="E548" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.2">
@@ -11542,7 +11542,7 @@
         <v>15717.966797249999</v>
       </c>
       <c r="E549" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.2">
@@ -11559,7 +11559,7 @@
         <v>15585.908203499999</v>
       </c>
       <c r="E550" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.2">
@@ -11576,7 +11576,7 @@
         <v>15581.069824499999</v>
       </c>
       <c r="E551" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
@@ -11593,7 +11593,7 @@
         <v>15550.461914249998</v>
       </c>
       <c r="E552" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
@@ -11610,7 +11610,7 @@
         <v>15559.807617000002</v>
       </c>
       <c r="E553" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.2">
@@ -11627,7 +11627,7 @@
         <v>15519.29296875</v>
       </c>
       <c r="E554" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.2">
@@ -11644,7 +11644,7 @@
         <v>15497.526855749999</v>
       </c>
       <c r="E555" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.2">
@@ -11661,7 +11661,7 @@
         <v>15399.45703125</v>
       </c>
       <c r="E556" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.2">
@@ -11678,7 +11678,7 @@
         <v>15417.622558499999</v>
       </c>
       <c r="E557" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.2">
@@ -11695,7 +11695,7 @@
         <v>15372.021972750001</v>
       </c>
       <c r="E558" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.2">
@@ -11712,7 +11712,7 @@
         <v>15280.514648250002</v>
       </c>
       <c r="E559" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.2">
@@ -11729,7 +11729,7 @@
         <v>15242.211914249998</v>
       </c>
       <c r="E560" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
@@ -11746,7 +11746,7 @@
         <v>15153.569824499999</v>
       </c>
       <c r="E561" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
@@ -11763,7 +11763,7 @@
         <v>15046.297851749998</v>
       </c>
       <c r="E562" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
@@ -11780,7 +11780,7 @@
         <v>15011.497558499999</v>
       </c>
       <c r="E563" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.2">
@@ -11797,7 +11797,7 @@
         <v>15051.509765999999</v>
       </c>
       <c r="E564" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.2">
@@ -11814,7 +11814,7 @@
         <v>15002.107910250001</v>
       </c>
       <c r="E565" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.2">
@@ -11831,7 +11831,7 @@
         <v>14973.158203499999</v>
       </c>
       <c r="E566" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.2">
@@ -11848,7 +11848,7 @@
         <v>14873.317382999998</v>
       </c>
       <c r="E567" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.2">
@@ -11865,7 +11865,7 @@
         <v>14884.492675500001</v>
       </c>
       <c r="E568" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.2">
@@ -11882,7 +11882,7 @@
         <v>14838.577148250002</v>
       </c>
       <c r="E569" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.2">
@@ -11899,7 +11899,7 @@
         <v>14902.79296875</v>
       </c>
       <c r="E570" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.2">
@@ -11916,7 +11916,7 @@
         <v>15054.48046875</v>
       </c>
       <c r="E571" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.2">
@@ -11933,7 +11933,7 @@
         <v>15050.646972750001</v>
       </c>
       <c r="E572" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.2">
@@ -11950,7 +11950,7 @@
         <v>14995.860351749998</v>
       </c>
       <c r="E573" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.2">
@@ -11967,7 +11967,7 @@
         <v>14840.033203499999</v>
       </c>
       <c r="E574" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.2">
@@ -11984,7 +11984,7 @@
         <v>14799.26953125</v>
       </c>
       <c r="E575" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
@@ -12001,7 +12001,7 @@
         <v>14819.35546875</v>
       </c>
       <c r="E576" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.2">
@@ -12018,7 +12018,7 @@
         <v>14758.454589749999</v>
       </c>
       <c r="E577" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.2">
@@ -12035,7 +12035,7 @@
         <v>14804.25</v>
       </c>
       <c r="E578" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.2">
@@ -12052,7 +12052,7 @@
         <v>14831.512206750001</v>
       </c>
       <c r="E579" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.2">
@@ -12069,7 +12069,7 @@
         <v>14887.035644250001</v>
       </c>
       <c r="E580" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.2">
@@ -12086,7 +12086,7 @@
         <v>14827.853027249999</v>
       </c>
       <c r="E581" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.2">
@@ -12103,7 +12103,7 @@
         <v>14874.870117000002</v>
       </c>
       <c r="E582" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.2">
@@ -12120,7 +12120,7 @@
         <v>14877.021972750001</v>
       </c>
       <c r="E583" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.2">
@@ -12137,7 +12137,7 @@
         <v>14915.535644250001</v>
       </c>
       <c r="E584" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.2">
@@ -12154,7 +12154,7 @@
         <v>14875.560058499999</v>
       </c>
       <c r="E585" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.2">
@@ -12171,7 +12171,7 @@
         <v>14858.339355749999</v>
       </c>
       <c r="E586" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.2">
@@ -12188,7 +12188,7 @@
         <v>14909.122558499999</v>
       </c>
       <c r="E587" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.2">
@@ -12205,7 +12205,7 @@
         <v>14831.947265999999</v>
       </c>
       <c r="E588" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/data/price/DJI.xlsx
+++ b/data/price/DJI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bottg\Google Drev\Git\TA Exam\data\price\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfo19\workspaces\TextAnalytics\TA_exam\data\price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B34905D-4E7F-4654-83F7-5B444A7B386A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4807FD50-C0E6-4FC8-AB3D-E51A8288C058}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2297" yWindow="2237" windowWidth="17589" windowHeight="10989" xr2:uid="{C25B8DFF-EDD1-4913-B600-DAD37D6182D1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{C25B8DFF-EDD1-4913-B600-DAD37D6182D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="593">
   <si>
     <t>Date</t>
   </si>
@@ -1818,6 +1818,9 @@
   </si>
   <si>
     <t>Upper Bound</t>
+  </si>
+  <si>
+    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +1863,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -1894,13 +1900,14 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{9C16D362-7A7D-4443-8CFB-35AEE3A02B2E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="11" unboundColumnsRight="1">
-    <queryTableFields count="5">
+  <queryTableRefresh nextId="12" unboundColumnsRight="2">
+    <queryTableFields count="6">
       <queryTableField id="3" name="High" tableColumnId="3"/>
       <queryTableField id="4" name="Low" tableColumnId="4"/>
       <queryTableField id="8" name="Upper bound" tableColumnId="8"/>
       <queryTableField id="9" name="Lower Bound" tableColumnId="9"/>
       <queryTableField id="10" dataBound="0" tableColumnId="1"/>
+      <queryTableField id="11" dataBound="0" tableColumnId="2"/>
     </queryTableFields>
     <queryTableDeletedFields count="1">
       <deletedField name="Date"/>
@@ -1910,21 +1917,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D650B09-C743-4DF1-8607-953F7412E7C1}" name="DJI" displayName="DJI" ref="A1:E588" tableType="queryTable" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A1:E588" xr:uid="{4AE440DB-A357-42DB-93E9-8BA4AC8A83AC}"/>
-  <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{0526710B-A2E5-4ECA-AF4C-0AA80C10C5F1}" uniqueName="3" name="High" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{002CF441-33FF-497F-ACD2-2405E55BAA2E}" uniqueName="4" name="Low" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{B357E2B4-8059-4001-B772-1048360D6DAF}" uniqueName="8" name="Upper Bound" queryTableFieldId="8" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{5FEC2CA9-E994-457E-AE1D-4BAC5B82BD33}" uniqueName="9" name="Lower Bound" queryTableFieldId="9" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{3CD6F93F-81C0-406E-8003-0ABB4B72BC4B}" uniqueName="1" name="Date" queryTableFieldId="10" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D650B09-C743-4DF1-8607-953F7412E7C1}" name="DJI" displayName="DJI" ref="A1:F588" tableType="queryTable" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:F588" xr:uid="{4AE440DB-A357-42DB-93E9-8BA4AC8A83AC}"/>
+  <tableColumns count="6">
+    <tableColumn id="3" xr3:uid="{0526710B-A2E5-4ECA-AF4C-0AA80C10C5F1}" uniqueName="3" name="High" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{002CF441-33FF-497F-ACD2-2405E55BAA2E}" uniqueName="4" name="Low" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{B357E2B4-8059-4001-B772-1048360D6DAF}" uniqueName="8" name="Upper Bound" queryTableFieldId="8" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{5FEC2CA9-E994-457E-AE1D-4BAC5B82BD33}" uniqueName="9" name="Lower Bound" queryTableFieldId="9" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{3CD6F93F-81C0-406E-8003-0ABB4B72BC4B}" uniqueName="1" name="Date" queryTableFieldId="10" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9A07BDDF-B8D8-41C5-AF5A-23DF01F75448}" uniqueName="2" name="Close" queryTableFieldId="11" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2220,21 +2228,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34B6DA0-B4C8-4EA7-971F-C0A4D315EE61}">
-  <dimension ref="A1:E588"/>
+  <dimension ref="A1:F588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A574" workbookViewId="0">
-      <selection activeCell="H587" sqref="H587"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H591" sqref="H591"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.07421875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2250,8 +2257,11 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>26534.960938</v>
       </c>
@@ -2267,8 +2277,11 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2" s="1">
+        <v>26504.949218999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>26454.689452999999</v>
       </c>
@@ -2284,8 +2297,11 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3" s="1">
+        <v>26307.789063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>26689.390625</v>
       </c>
@@ -2301,8 +2317,11 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4" s="1">
+        <v>26430.140625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>26614.039063</v>
       </c>
@@ -2318,8 +2337,11 @@
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F5" s="1">
+        <v>26592.910156000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>26602.539063</v>
       </c>
@@ -2335,8 +2357,11 @@
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F6" s="1">
+        <v>26554.390625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>26543.560547000001</v>
       </c>
@@ -2352,8 +2377,11 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F7" s="1">
+        <v>26543.330077999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>26536.480468999998</v>
       </c>
@@ -2369,8 +2397,11 @@
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F8" s="1">
+        <v>26462.080077999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>26680.580077999999</v>
       </c>
@@ -2386,8 +2417,11 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F9" s="1">
+        <v>26597.050781000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>26695.960938</v>
       </c>
@@ -2403,8 +2437,11 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F10" s="1">
+        <v>26656.390625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>26553.050781000002</v>
       </c>
@@ -2420,8 +2457,11 @@
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F11" s="1">
+        <v>26511.050781000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>26602.419922000001</v>
       </c>
@@ -2437,8 +2477,11 @@
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F12" s="1">
+        <v>26559.539063</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>26501.019531000002</v>
       </c>
@@ -2454,8 +2497,11 @@
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F13" s="1">
+        <v>26449.539063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>26530.710938</v>
       </c>
@@ -2471,8 +2517,11 @@
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F14" s="1">
+        <v>26452.660156000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>26424.849609000001</v>
       </c>
@@ -2488,8 +2537,11 @@
       <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F15" s="1">
+        <v>26384.769531000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>26436.679688</v>
       </c>
@@ -2505,8 +2557,11 @@
       <c r="E16" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F16" s="1">
+        <v>26412.300781000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>26229.880859000001</v>
       </c>
@@ -2522,8 +2577,11 @@
       <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F17" s="1">
+        <v>26143.050781000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>26209.490234000001</v>
       </c>
@@ -2539,8 +2597,11 @@
       <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F18" s="1">
+        <v>26157.160156000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>26246.339843999998</v>
       </c>
@@ -2556,8 +2617,11 @@
       <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F19" s="1">
+        <v>26150.580077999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>26344.650390999999</v>
       </c>
@@ -2573,8 +2637,11 @@
       <c r="E20" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F20" s="1">
+        <v>26341.019531000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>26487.570313</v>
       </c>
@@ -2590,8 +2657,11 @@
       <c r="E21" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F21" s="1">
+        <v>26424.990234000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>26398.900390999999</v>
       </c>
@@ -2607,8 +2677,11 @@
       <c r="E22" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F22" s="1">
+        <v>26384.630859000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>26282.169922000001</v>
       </c>
@@ -2624,8 +2697,11 @@
       <c r="E23" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F23" s="1">
+        <v>26218.130859000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>26221.240234000001</v>
       </c>
@@ -2641,8 +2717,11 @@
       <c r="E24" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F24" s="1">
+        <v>26179.130859000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>26280.900390999999</v>
       </c>
@@ -2658,8 +2737,11 @@
       <c r="E25" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F25" s="1">
+        <v>26258.419922000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25949.320313</v>
       </c>
@@ -2675,8 +2757,11 @@
       <c r="E26" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F26" s="1">
+        <v>25928.679688</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25743.410156000002</v>
       </c>
@@ -2692,8 +2777,11 @@
       <c r="E27" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F27" s="1">
+        <v>25717.460938</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25758.169922000001</v>
       </c>
@@ -2709,8 +2797,11 @@
       <c r="E28" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F28" s="1">
+        <v>25625.589843999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>25796.289063</v>
       </c>
@@ -2726,8 +2817,11 @@
       <c r="E29" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F29" s="1">
+        <v>25657.730468999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>25603.269531000002</v>
       </c>
@@ -2743,8 +2837,11 @@
       <c r="E30" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F30" s="1">
+        <v>25516.830077999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>25877.009765999999</v>
       </c>
@@ -2760,8 +2857,11 @@
       <c r="E31" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F31" s="1">
+        <v>25502.320313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>26009.900390999999</v>
       </c>
@@ -2777,8 +2877,11 @@
       <c r="E32" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F32" s="1">
+        <v>25962.509765999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>25929.519531000002</v>
       </c>
@@ -2794,8 +2897,11 @@
       <c r="E33" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F33" s="1">
+        <v>25745.669922000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>26109.679688</v>
       </c>
@@ -2811,8 +2917,11 @@
       <c r="E34" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F34" s="1">
+        <v>25887.380859000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>25924.769531000002</v>
       </c>
@@ -2828,8 +2937,11 @@
       <c r="E35" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F35" s="1">
+        <v>25914.099609000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>25927.910156000002</v>
       </c>
@@ -2845,8 +2957,11 @@
       <c r="E36" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F36" s="1">
+        <v>25848.869140999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>25752.839843999998</v>
       </c>
@@ -2862,8 +2977,11 @@
       <c r="E37" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F37" s="1">
+        <v>25709.939452999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>25776.490234000001</v>
       </c>
@@ -2879,8 +2997,11 @@
       <c r="E38" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F38" s="1">
+        <v>25702.890625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>25675.439452999999</v>
       </c>
@@ -2896,8 +3017,11 @@
       <c r="E39" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F39" s="1">
+        <v>25554.660156000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>25661.630859000001</v>
       </c>
@@ -2913,8 +3037,11 @@
       <c r="E40" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F40" s="1">
+        <v>25650.880859000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>25466.140625</v>
       </c>
@@ -2930,8 +3057,11 @@
       <c r="E41" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F41" s="1">
+        <v>25450.240234000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>25645.449218999998</v>
       </c>
@@ -2947,8 +3077,11 @@
       <c r="E42" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F42" s="1">
+        <v>25473.230468999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>25837.609375</v>
       </c>
@@ -2964,8 +3097,11 @@
       <c r="E43" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F43" s="1">
+        <v>25673.460938</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>25877.150390999999</v>
       </c>
@@ -2981,8 +3117,11 @@
       <c r="E44" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F44" s="1">
+        <v>25806.630859000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>26155.980468999998</v>
       </c>
@@ -2998,8 +3137,11 @@
       <c r="E45" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F45" s="1">
+        <v>25819.650390999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>26143.919922000001</v>
       </c>
@@ -3015,8 +3157,11 @@
       <c r="E46" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F46" s="1">
+        <v>26026.320313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>26029.210938</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="E47" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F47" s="1">
+        <v>25916</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>26039.679688</v>
       </c>
@@ -3049,8 +3197,11 @@
       <c r="E48" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F48" s="1">
+        <v>25985.160156000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>26155.289063</v>
       </c>
@@ -3066,8 +3217,11 @@
       <c r="E49" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F49" s="1">
+        <v>26057.980468999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>26241.419922000001</v>
       </c>
@@ -3083,8 +3237,11 @@
       <c r="E50" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F50" s="1">
+        <v>26091.949218999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>26052.900390999999</v>
       </c>
@@ -3100,8 +3257,11 @@
       <c r="E51" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F51" s="1">
+        <v>26031.810547000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>25938.880859000001</v>
       </c>
@@ -3117,8 +3277,11 @@
       <c r="E52" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F52" s="1">
+        <v>25850.630859000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>25986.199218999998</v>
       </c>
@@ -3134,8 +3297,11 @@
       <c r="E53" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F53" s="1">
+        <v>25954.439452999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>25961.439452999999</v>
       </c>
@@ -3151,8 +3317,11 @@
       <c r="E54" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F54" s="1">
+        <v>25891.320313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>25883.720702999999</v>
       </c>
@@ -3168,8 +3337,11 @@
       <c r="E55" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F55" s="1">
+        <v>25883.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>25558.900390999999</v>
       </c>
@@ -3185,8 +3357,11 @@
       <c r="E56" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F56" s="1">
+        <v>25439.390625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>25625.949218999998</v>
       </c>
@@ -3202,8 +3377,11 @@
       <c r="E57" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F57" s="1">
+        <v>25543.269531000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>25458.980468999998</v>
       </c>
@@ -3219,8 +3397,11 @@
       <c r="E58" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F58" s="1">
+        <v>25425.759765999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>25196.75</v>
       </c>
@@ -3236,8 +3417,11 @@
       <c r="E59" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F59" s="1">
+        <v>25053.109375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>25106.390625</v>
       </c>
@@ -3253,8 +3437,11 @@
       <c r="E60" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F60" s="1">
+        <v>25106.330077999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>25314.259765999999</v>
       </c>
@@ -3270,8 +3457,11 @@
       <c r="E61" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F61" s="1">
+        <v>25169.529297000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>25439.039063</v>
       </c>
@@ -3287,8 +3477,11 @@
       <c r="E62" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F62" s="1">
+        <v>25390.300781000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>25427.320313</v>
       </c>
@@ -3304,8 +3497,11 @@
       <c r="E63" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F63" s="1">
+        <v>25411.519531000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>25239.910156000002</v>
       </c>
@@ -3321,8 +3517,11 @@
       <c r="E64" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F64" s="1">
+        <v>25239.369140999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>25193.150390999999</v>
       </c>
@@ -3338,8 +3537,11 @@
       <c r="E65" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F65" s="1">
+        <v>25063.890625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>25049.619140999999</v>
       </c>
@@ -3355,8 +3557,11 @@
       <c r="E66" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F66" s="1">
+        <v>24999.669922000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>25109.619140999999</v>
       </c>
@@ -3372,8 +3577,11 @@
       <c r="E67" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F67" s="1">
+        <v>25014.859375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>24674.869140999999</v>
       </c>
@@ -3389,8 +3597,11 @@
       <c r="E68" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F68" s="1">
+        <v>24579.960938</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>24596.980468999998</v>
       </c>
@@ -3406,8 +3617,11 @@
       <c r="E69" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F69" s="1">
+        <v>24528.220702999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>24860.150390999999</v>
       </c>
@@ -3423,8 +3637,11 @@
       <c r="E70" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F70" s="1">
+        <v>24737.199218999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>24626.300781000002</v>
       </c>
@@ -3440,8 +3657,11 @@
       <c r="E71" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F71" s="1">
+        <v>24553.240234000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>24700.980468999998</v>
       </c>
@@ -3457,8 +3677,11 @@
       <c r="E72" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F72" s="1">
+        <v>24575.619140999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>24607.759765999999</v>
       </c>
@@ -3474,8 +3697,11 @@
       <c r="E73" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F73" s="1">
+        <v>24404.480468999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>24750.220702999999</v>
       </c>
@@ -3491,8 +3717,11 @@
       <c r="E74" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F74" s="1">
+        <v>24706.349609000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>24474.460938</v>
       </c>
@@ -3508,8 +3737,11 @@
       <c r="E75" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F75" s="1">
+        <v>24370.099609000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>24288.609375</v>
       </c>
@@ -3525,8 +3757,11 @@
       <c r="E76" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F76" s="1">
+        <v>24207.160156000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>24099.140625</v>
       </c>
@@ -3542,8 +3777,11 @@
       <c r="E77" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F77" s="1">
+        <v>24065.589843999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>23964.900390999999</v>
       </c>
@@ -3559,8 +3797,11 @@
       <c r="E78" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F78" s="1">
+        <v>23909.839843999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>23996.320313</v>
       </c>
@@ -3576,8 +3817,11 @@
       <c r="E79" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F79" s="1">
+        <v>23995.949218999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>24014.779297000001</v>
       </c>
@@ -3593,8 +3837,11 @@
       <c r="E80" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F80" s="1">
+        <v>24001.919922000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>23985.449218999998</v>
       </c>
@@ -3610,8 +3857,11 @@
       <c r="E81" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F81" s="1">
+        <v>23879.119140999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>23864.650390999999</v>
       </c>
@@ -3627,8 +3877,11 @@
       <c r="E82" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F82" s="1">
+        <v>23787.449218999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>23687.740234000001</v>
       </c>
@@ -3644,8 +3897,11 @@
       <c r="E83" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F83" s="1">
+        <v>23531.349609000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>23518.640625</v>
       </c>
@@ -3661,8 +3917,11 @@
       <c r="E84" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F84" s="1">
+        <v>23433.160156000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>23176.390625</v>
       </c>
@@ -3678,8 +3937,11 @@
       <c r="E85" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F85" s="1">
+        <v>22686.220702999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>23413.470702999999</v>
       </c>
@@ -3695,8 +3957,11 @@
       <c r="E86" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F86" s="1">
+        <v>23346.240234000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>23333.179688</v>
       </c>
@@ -3712,8 +3977,11 @@
       <c r="E87" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F87" s="1">
+        <v>23327.460938</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>23381.880859000001</v>
       </c>
@@ -3729,8 +3997,11 @@
       <c r="E88" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F88" s="1">
+        <v>23062.400390999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>23138.890625</v>
       </c>
@@ -3746,8 +4017,11 @@
       <c r="E89" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F89" s="1">
+        <v>23138.820313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>22878.919922000001</v>
       </c>
@@ -3763,8 +4037,11 @@
       <c r="E90" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F90" s="1">
+        <v>22878.449218999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>22339.869140999999</v>
       </c>
@@ -3780,8 +4057,11 @@
       <c r="E91" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F91" s="1">
+        <v>21792.199218999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>23254.589843999998</v>
       </c>
@@ -3797,8 +4077,11 @@
       <c r="E92" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F92" s="1">
+        <v>22445.369140999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>23282.199218999998</v>
       </c>
@@ -3814,8 +4097,11 @@
       <c r="E93" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F93" s="1">
+        <v>22859.599609000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>24057.339843999998</v>
       </c>
@@ -3831,8 +4117,11 @@
       <c r="E94" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F94" s="1">
+        <v>23323.660156000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>23927.769531000002</v>
       </c>
@@ -3848,8 +4137,11 @@
       <c r="E95" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F95" s="1">
+        <v>23675.640625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>24088.080077999999</v>
       </c>
@@ -3865,8 +4157,11 @@
       <c r="E96" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F96" s="1">
+        <v>23592.980468999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>24431.140625</v>
       </c>
@@ -3882,8 +4177,11 @@
       <c r="E97" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F97" s="1">
+        <v>24100.509765999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>24740.960938</v>
       </c>
@@ -3899,8 +4197,11 @@
       <c r="E98" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F98" s="1">
+        <v>24597.380859000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>24828.289063</v>
       </c>
@@ -3916,8 +4217,11 @@
       <c r="E99" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F99" s="1">
+        <v>24527.269531000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>24791.259765999999</v>
       </c>
@@ -3933,8 +4237,11 @@
       <c r="E100" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F100" s="1">
+        <v>24370.240234000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>24500.810547000001</v>
       </c>
@@ -3950,8 +4257,11 @@
       <c r="E101" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F101" s="1">
+        <v>24423.259765999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>25095.619140999999</v>
       </c>
@@ -3967,8 +4277,11 @@
       <c r="E102" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F102" s="1">
+        <v>24388.949218999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>24951.009765999999</v>
       </c>
@@ -3984,8 +4297,11 @@
       <c r="E103" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F103" s="1">
+        <v>24947.669922000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>25773.119140999999</v>
       </c>
@@ -4001,8 +4317,11 @@
       <c r="E104" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F104" s="1">
+        <v>25027.070313</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>25980.210938</v>
       </c>
@@ -4018,8 +4337,11 @@
       <c r="E105" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F105" s="1">
+        <v>25826.429688</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>25549.710938</v>
       </c>
@@ -4035,8 +4357,11 @@
       <c r="E106" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F106" s="1">
+        <v>25538.460938</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>25479.039063</v>
       </c>
@@ -4052,8 +4377,11 @@
       <c r="E107" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F107" s="1">
+        <v>25338.839843999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>25368.929688</v>
       </c>
@@ -4069,8 +4397,11 @@
       <c r="E108" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F108" s="1">
+        <v>25366.429688</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>24750.730468999998</v>
       </c>
@@ -4086,8 +4417,11 @@
       <c r="E109" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F109" s="1">
+        <v>24748.730468999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>24673.289063</v>
       </c>
@@ -4103,8 +4437,11 @@
       <c r="E110" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F110" s="1">
+        <v>24640.240234000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>24408.800781000002</v>
       </c>
@@ -4120,8 +4457,11 @@
       <c r="E111" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F111" s="1">
+        <v>24285.949218999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>24669.789063</v>
       </c>
@@ -4137,8 +4477,11 @@
       <c r="E112" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F112" s="1">
+        <v>24464.689452999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>24707.259765999999</v>
       </c>
@@ -4154,8 +4497,11 @@
       <c r="E113" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F113" s="1">
+        <v>24465.640625</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>25392.609375</v>
       </c>
@@ -4171,8 +4517,11 @@
       <c r="E114" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F114" s="1">
+        <v>25017.439452999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>25510.230468999998</v>
       </c>
@@ -4188,8 +4537,11 @@
       <c r="E115" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F115" s="1">
+        <v>25413.220702999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>25354.560547000001</v>
       </c>
@@ -4205,8 +4557,11 @@
       <c r="E116" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F116" s="1">
+        <v>25289.269531000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>25501.289063</v>
       </c>
@@ -4222,8 +4577,11 @@
       <c r="E117" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F117" s="1">
+        <v>25080.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>25511.029297000001</v>
       </c>
@@ -4239,8 +4597,11 @@
       <c r="E118" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F118" s="1">
+        <v>25286.490234000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>25966.710938</v>
       </c>
@@ -4256,8 +4617,11 @@
       <c r="E119" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F119" s="1">
+        <v>25387.179688</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>26161.490234000001</v>
       </c>
@@ -4273,8 +4637,11 @@
       <c r="E120" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F120" s="1">
+        <v>25989.300781000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>26277.820313</v>
       </c>
@@ -4290,8 +4657,11 @@
       <c r="E121" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F121" s="1">
+        <v>26191.220702999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>26200.140625</v>
       </c>
@@ -4307,8 +4677,11 @@
       <c r="E122" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F122" s="1">
+        <v>26180.300781000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>25651.859375</v>
       </c>
@@ -4324,8 +4697,11 @@
       <c r="E123" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F123" s="1">
+        <v>25635.009765999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>25507.349609000001</v>
       </c>
@@ -4341,8 +4717,11 @@
       <c r="E124" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F124" s="1">
+        <v>25461.699218999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>25578.980468999998</v>
       </c>
@@ -4358,8 +4737,11 @@
       <c r="E125" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F125" s="1">
+        <v>25270.830077999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>25396.470702999999</v>
       </c>
@@ -4375,8 +4757,11 @@
       <c r="E126" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F126" s="1">
+        <v>25380.740234000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>25336.550781000002</v>
       </c>
@@ -4392,8 +4777,11 @@
       <c r="E127" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F127" s="1">
+        <v>25115.759765999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>24906.679688</v>
       </c>
@@ -4409,8 +4797,11 @@
       <c r="E128" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F128" s="1">
+        <v>24874.640625</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>25040.580077999999</v>
       </c>
@@ -4426,8 +4817,11 @@
       <c r="E129" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F129" s="1">
+        <v>24442.919922000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>24916.160156000002</v>
       </c>
@@ -4443,8 +4837,11 @@
       <c r="E130" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F130" s="1">
+        <v>24688.310547000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>25104.289063</v>
       </c>
@@ -4460,8 +4857,11 @@
       <c r="E131" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F131" s="1">
+        <v>24984.550781000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>25306.230468999998</v>
       </c>
@@ -4477,8 +4877,11 @@
       <c r="E132" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F132" s="1">
+        <v>24583.419922000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>25307.699218999998</v>
       </c>
@@ -4494,8 +4897,11 @@
       <c r="E133" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F133" s="1">
+        <v>25191.429688</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>25561.339843999998</v>
       </c>
@@ -4511,8 +4917,11 @@
       <c r="E134" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F134" s="1">
+        <v>25317.410156000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>25608.710938</v>
       </c>
@@ -4528,8 +4937,11 @@
       <c r="E135" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F135" s="1">
+        <v>25444.339843999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>25691.460938</v>
       </c>
@@ -4545,8 +4957,11 @@
       <c r="E136" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F136" s="1">
+        <v>25379.449218999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>25810.089843999998</v>
       </c>
@@ -4562,8 +4977,11 @@
       <c r="E137" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F137" s="1">
+        <v>25706.679688</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>25817.679688</v>
       </c>
@@ -4579,8 +4997,11 @@
       <c r="E138" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F138" s="1">
+        <v>25798.419922000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>25482.419922000001</v>
       </c>
@@ -4596,8 +5017,11 @@
       <c r="E139" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F139" s="1">
+        <v>25250.550781000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>25467.550781000002</v>
       </c>
@@ -4613,8 +5037,11 @@
       <c r="E140" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F140" s="1">
+        <v>25339.990234000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>25683.640625</v>
       </c>
@@ -4630,8 +5057,11 @@
       <c r="E141" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F141" s="1">
+        <v>25052.830077999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>26487.869140999999</v>
       </c>
@@ -4647,8 +5077,11 @@
       <c r="E142" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F142" s="1">
+        <v>25598.740234000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>26539.939452999999</v>
       </c>
@@ -4664,8 +5097,11 @@
       <c r="E143" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F143" s="1">
+        <v>26430.570313</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>26529.349609000001</v>
       </c>
@@ -4681,8 +5117,11 @@
       <c r="E144" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F144" s="1">
+        <v>26486.779297000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>26676.160156000002</v>
       </c>
@@ -4698,8 +5137,11 @@
       <c r="E145" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F145" s="1">
+        <v>26447.050781000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>26793.820313</v>
       </c>
@@ -4715,8 +5157,11 @@
       <c r="E146" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F146" s="1">
+        <v>26627.480468999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>26951.810547000001</v>
       </c>
@@ -4732,8 +5177,11 @@
       <c r="E147" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F147" s="1">
+        <v>26828.390625</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>26824.779297000001</v>
       </c>
@@ -4749,8 +5197,11 @@
       <c r="E148" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F148" s="1">
+        <v>26773.939452999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>26737.980468999998</v>
       </c>
@@ -4766,8 +5217,11 @@
       <c r="E149" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F149" s="1">
+        <v>26651.210938</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>26515.759765999999</v>
       </c>
@@ -4783,8 +5237,11 @@
       <c r="E150" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F150" s="1">
+        <v>26458.310547000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>26557.009765999999</v>
       </c>
@@ -4800,8 +5257,11 @@
       <c r="E151" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F151" s="1">
+        <v>26439.929688</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>26606.089843999998</v>
       </c>
@@ -4817,8 +5277,11 @@
       <c r="E152" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F152" s="1">
+        <v>26385.279297000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>26634.849609000001</v>
       </c>
@@ -4834,8 +5297,11 @@
       <c r="E153" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F153" s="1">
+        <v>26492.210938</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>26709.939452999999</v>
       </c>
@@ -4851,8 +5317,11 @@
       <c r="E154" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F154" s="1">
+        <v>26562.050781000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>26769.160156000002</v>
       </c>
@@ -4868,8 +5337,11 @@
       <c r="E155" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F155" s="1">
+        <v>26743.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>26697.490234000001</v>
       </c>
@@ -4885,8 +5357,11 @@
       <c r="E156" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F156" s="1">
+        <v>26656.980468999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>26464.410156000002</v>
       </c>
@@ -4902,8 +5377,11 @@
       <c r="E157" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F157" s="1">
+        <v>26405.759765999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>26317.339843999998</v>
       </c>
@@ -4919,8 +5397,11 @@
       <c r="E158" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F158" s="1">
+        <v>26246.960938</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>26184.470702999999</v>
       </c>
@@ -4936,8 +5417,11 @@
       <c r="E159" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F159" s="1">
+        <v>26062.119140999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>26211.109375</v>
       </c>
@@ -4953,8 +5437,11 @@
       <c r="E160" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F160" s="1">
+        <v>26154.669922000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>26191.640625</v>
       </c>
@@ -4970,8 +5457,11 @@
       <c r="E161" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F161" s="1">
+        <v>26145.990234000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>26145.720702999999</v>
       </c>
@@ -4987,8 +5477,11 @@
       <c r="E162" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F162" s="1">
+        <v>25998.919922000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>26019.919922000001</v>
       </c>
@@ -5004,8 +5497,11 @@
       <c r="E163" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F163" s="1">
+        <v>25971.060547000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>26039.960938</v>
       </c>
@@ -5021,8 +5517,11 @@
       <c r="E164" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F164" s="1">
+        <v>25857.070313</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>26002.990234000001</v>
       </c>
@@ -5038,8 +5537,11 @@
       <c r="E165" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F165" s="1">
+        <v>25916.539063</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>26073.679688</v>
       </c>
@@ -5055,8 +5557,11 @@
       <c r="E166" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F166" s="1">
+        <v>25995.869140999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>26011.220702999999</v>
       </c>
@@ -5072,8 +5577,11 @@
       <c r="E167" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F167" s="1">
+        <v>25974.990234000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>25971.769531000002</v>
       </c>
@@ -5089,8 +5597,11 @@
       <c r="E168" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F168" s="1">
+        <v>25952.480468999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>26028.830077999999</v>
       </c>
@@ -5106,8 +5617,11 @@
       <c r="E169" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F169" s="1">
+        <v>25964.820313</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>26104.369140999999</v>
       </c>
@@ -5123,8 +5637,11 @@
       <c r="E170" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F170" s="1">
+        <v>25986.919922000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>26167.939452999999</v>
       </c>
@@ -5140,8 +5657,11 @@
       <c r="E171" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F171" s="1">
+        <v>26124.570313</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>26122.240234000001</v>
       </c>
@@ -5157,8 +5677,11 @@
       <c r="E172" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F172" s="1">
+        <v>26064.019531000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>26067.570313</v>
       </c>
@@ -5174,8 +5697,11 @@
       <c r="E173" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F173" s="1">
+        <v>26049.640625</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>25826.050781000002</v>
       </c>
@@ -5191,8 +5717,11 @@
       <c r="E174" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F174" s="1">
+        <v>25790.349609000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>25762.560547000001</v>
       </c>
@@ -5208,8 +5737,11 @@
       <c r="E175" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F175" s="1">
+        <v>25656.980468999998</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>25836.160156000002</v>
       </c>
@@ -5225,8 +5757,11 @@
       <c r="E176" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F176" s="1">
+        <v>25733.599609000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>25888.820313</v>
       </c>
@@ -5242,8 +5777,11 @@
       <c r="E177" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F177" s="1">
+        <v>25822.289063</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>25790.169922000001</v>
       </c>
@@ -5259,8 +5797,11 @@
       <c r="E178" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F178" s="1">
+        <v>25758.689452999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>25728.160156000002</v>
       </c>
@@ -5276,8 +5817,11 @@
       <c r="E179" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F179" s="1">
+        <v>25669.320313</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>25607.339843999998</v>
       </c>
@@ -5293,8 +5837,11 @@
       <c r="E180" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F180" s="1">
+        <v>25558.730468999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>25235.369140999999</v>
       </c>
@@ -5310,8 +5857,11 @@
       <c r="E181" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F181" s="1">
+        <v>25162.410156000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>25339.509765999999</v>
       </c>
@@ -5327,8 +5877,11 @@
       <c r="E182" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F182" s="1">
+        <v>25299.919922000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>25381.390625</v>
       </c>
@@ -5344,8 +5897,11 @@
       <c r="E183" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F183" s="1">
+        <v>25187.699218999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>25401.189452999999</v>
       </c>
@@ -5361,8 +5917,11 @@
       <c r="E184" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F184" s="1">
+        <v>25313.140625</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>25613.310547000001</v>
       </c>
@@ -5378,8 +5937,11 @@
       <c r="E185" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F185" s="1">
+        <v>25509.230468999998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>25634.109375</v>
       </c>
@@ -5395,8 +5957,11 @@
       <c r="E186" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F186" s="1">
+        <v>25583.75</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>25692.720702999999</v>
       </c>
@@ -5412,8 +5977,11 @@
       <c r="E187" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F187" s="1">
+        <v>25628.910156000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>25540.019531000002</v>
       </c>
@@ -5429,8 +5997,11 @@
       <c r="E188" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F188" s="1">
+        <v>25502.179688</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>25467.900390999999</v>
       </c>
@@ -5446,8 +6017,11 @@
       <c r="E189" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F189" s="1">
+        <v>25462.580077999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>25360.480468999998</v>
       </c>
@@ -5463,8 +6037,11 @@
       <c r="E190" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F190" s="1">
+        <v>25326.160156000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>25488.800781000002</v>
       </c>
@@ -5480,8 +6057,11 @@
       <c r="E191" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F191" s="1">
+        <v>25333.820313</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>25490.980468999998</v>
       </c>
@@ -5497,8 +6077,11 @@
       <c r="E192" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F192" s="1">
+        <v>25415.189452999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>25500.160156000002</v>
       </c>
@@ -5514,8 +6097,11 @@
       <c r="E193" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F193" s="1">
+        <v>25306.830077999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>25580.220702999999</v>
       </c>
@@ -5531,8 +6117,11 @@
       <c r="E194" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F194" s="1">
+        <v>25451.060547000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>25587.240234000001</v>
       </c>
@@ -5548,8 +6137,11 @@
       <c r="E195" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F195" s="1">
+        <v>25527.070313</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>25432.869140999999</v>
       </c>
@@ -5565,8 +6157,11 @@
       <c r="E196" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F196" s="1">
+        <v>25414.099609000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>25286.619140999999</v>
       </c>
@@ -5582,8 +6177,11 @@
       <c r="E197" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F197" s="1">
+        <v>25241.939452999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>25081.449218999998</v>
       </c>
@@ -5599,8 +6197,11 @@
       <c r="E198" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F198" s="1">
+        <v>25044.289063</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>25124.099609000001</v>
       </c>
@@ -5616,8 +6217,11 @@
       <c r="E199" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F199" s="1">
+        <v>25058.119140999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>25154.169922000001</v>
       </c>
@@ -5633,8 +6237,11 @@
       <c r="E200" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F200" s="1">
+        <v>25064.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>25215.320313</v>
       </c>
@@ -5650,8 +6257,11 @@
       <c r="E201" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F201" s="1">
+        <v>25199.289063</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>25155.390625</v>
       </c>
@@ -5667,8 +6277,11 @@
       <c r="E202" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F202" s="1">
+        <v>25119.890625</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>25072.410156000002</v>
       </c>
@@ -5684,8 +6297,11 @@
       <c r="E203" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F203" s="1">
+        <v>25064.359375</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>25043.210938</v>
       </c>
@@ -5701,8 +6317,11 @@
       <c r="E204" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F204" s="1">
+        <v>25019.410156000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>24939.970702999999</v>
       </c>
@@ -5718,8 +6337,11 @@
       <c r="E205" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F205" s="1">
+        <v>24924.890625</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>24815.160156000002</v>
       </c>
@@ -5735,8 +6357,11 @@
       <c r="E206" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F206" s="1">
+        <v>24700.449218999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>24945.380859000001</v>
       </c>
@@ -5752,8 +6377,11 @@
       <c r="E207" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F207" s="1">
+        <v>24919.660156000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>24796.519531000002</v>
       </c>
@@ -5769,8 +6397,11 @@
       <c r="E208" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F208" s="1">
+        <v>24776.589843999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>24520.289063</v>
       </c>
@@ -5786,8 +6417,11 @@
       <c r="E209" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F209" s="1">
+        <v>24456.480468999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>24372.800781000002</v>
       </c>
@@ -5803,8 +6437,11 @@
       <c r="E210" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F210" s="1">
+        <v>24356.740234000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>24444.880859000001</v>
       </c>
@@ -5820,8 +6457,11 @@
       <c r="E211" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F211" s="1">
+        <v>24174.820313</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>24319.419922000001</v>
       </c>
@@ -5837,8 +6477,11 @@
       <c r="E212" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F212" s="1">
+        <v>24307.179688</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>24509.519531000002</v>
       </c>
@@ -5854,8 +6497,11 @@
       <c r="E213" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F213" s="1">
+        <v>24271.410156000002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>24308.160156000002</v>
       </c>
@@ -5871,8 +6517,11 @@
       <c r="E214" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F214" s="1">
+        <v>24216.050781000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>24569.019531000002</v>
       </c>
@@ -5888,8 +6537,11 @@
       <c r="E215" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F215" s="1">
+        <v>24117.589843999998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>24384.210938</v>
       </c>
@@ -5905,8 +6557,11 @@
       <c r="E216" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F216" s="1">
+        <v>24283.109375</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>24463.730468999998</v>
       </c>
@@ -5922,8 +6577,11 @@
       <c r="E217" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F217" s="1">
+        <v>24252.800781000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>24663.179688</v>
       </c>
@@ -5939,8 +6597,11 @@
       <c r="E218" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F218" s="1">
+        <v>24580.890625</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>24639.210938</v>
       </c>
@@ -5956,8 +6617,11 @@
       <c r="E219" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F219" s="1">
+        <v>24461.699218999998</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>24804.759765999999</v>
       </c>
@@ -5973,8 +6637,11 @@
       <c r="E220" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F220" s="1">
+        <v>24657.800781000002</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>24763.589843999998</v>
       </c>
@@ -5990,8 +6657,11 @@
       <c r="E221" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F221" s="1">
+        <v>24700.210938</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>25003.099609000001</v>
       </c>
@@ -6007,8 +6677,11 @@
       <c r="E222" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F222" s="1">
+        <v>24987.470702999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>25130.820313</v>
       </c>
@@ -6024,8 +6697,11 @@
       <c r="E223" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F223" s="1">
+        <v>25090.480468999998</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>25332.5</v>
       </c>
@@ -6041,8 +6717,11 @@
       <c r="E224" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F224" s="1">
+        <v>25175.310547000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>25362.070313</v>
       </c>
@@ -6058,8 +6737,11 @@
       <c r="E225" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F225" s="1">
+        <v>25201.199218999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>25364.369140999999</v>
       </c>
@@ -6075,8 +6757,11 @@
       <c r="E226" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F226" s="1">
+        <v>25320.730468999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>25402.830077999999</v>
       </c>
@@ -6092,8 +6777,11 @@
       <c r="E227" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F227" s="1">
+        <v>25322.310547000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>25325.630859000001</v>
       </c>
@@ -6109,8 +6797,11 @@
       <c r="E228" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F228" s="1">
+        <v>25316.529297000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>25326.089843999998</v>
       </c>
@@ -6126,8 +6817,11 @@
       <c r="E229" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F229" s="1">
+        <v>25241.410156000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>25146.460938</v>
       </c>
@@ -6143,8 +6837,11 @@
       <c r="E230" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F230" s="1">
+        <v>25146.390625</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>24838.779297000001</v>
       </c>
@@ -6160,8 +6857,11 @@
       <c r="E231" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F231" s="1">
+        <v>24799.980468999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>24859.369140999999</v>
       </c>
@@ -6177,8 +6877,11 @@
       <c r="E232" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F232" s="1">
+        <v>24813.689452999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>24673.599609000001</v>
       </c>
@@ -6194,8 +6897,11 @@
       <c r="E233" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F233" s="1">
+        <v>24635.210938</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>24620.789063</v>
       </c>
@@ -6211,8 +6917,11 @@
       <c r="E234" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F234" s="1">
+        <v>24415.839843999998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>24714.480468999998</v>
       </c>
@@ -6228,8 +6937,11 @@
       <c r="E235" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F235" s="1">
+        <v>24667.779297000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>24635.179688</v>
       </c>
@@ -6245,8 +6957,11 @@
       <c r="E236" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F236" s="1">
+        <v>24361.449218999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>24824.220702999999</v>
       </c>
@@ -6262,8 +6977,11 @@
       <c r="E237" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F237" s="1">
+        <v>24753.089843999998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>24877.359375</v>
       </c>
@@ -6279,8 +6997,11 @@
       <c r="E238" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F238" s="1">
+        <v>24811.759765999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>24889.460938</v>
       </c>
@@ -6296,8 +7017,11 @@
       <c r="E239" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F239" s="1">
+        <v>24886.810547000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>25064.990234000001</v>
       </c>
@@ -6313,8 +7037,11 @@
       <c r="E240" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F240" s="1">
+        <v>24834.410156000002</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>25086.490234000001</v>
       </c>
@@ -6330,8 +7057,11 @@
       <c r="E241" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F241" s="1">
+        <v>25013.289063</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>24774.970702999999</v>
       </c>
@@ -6347,8 +7077,11 @@
       <c r="E242" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F242" s="1">
+        <v>24715.089843999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>24839.490234000001</v>
       </c>
@@ -6364,8 +7097,11 @@
       <c r="E243" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F243" s="1">
+        <v>24713.980468999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>24801.189452999999</v>
       </c>
@@ -6381,8 +7117,11 @@
       <c r="E244" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F244" s="1">
+        <v>24768.929688</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>24809.550781000002</v>
       </c>
@@ -6398,8 +7137,11 @@
       <c r="E245" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F245" s="1">
+        <v>24706.410156000002</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>24994.189452999999</v>
       </c>
@@ -6415,8 +7157,11 @@
       <c r="E246" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F246" s="1">
+        <v>24899.410156000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>24868.650390999999</v>
       </c>
@@ -6432,8 +7177,11 @@
       <c r="E247" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F247" s="1">
+        <v>24831.169922000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>24794.990234000001</v>
       </c>
@@ -6449,8 +7197,11 @@
       <c r="E248" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F248" s="1">
+        <v>24739.529297000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>24586.480468999998</v>
       </c>
@@ -6466,8 +7217,11 @@
       <c r="E249" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F249" s="1">
+        <v>24542.539063</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>24412.339843999998</v>
       </c>
@@ -6483,8 +7237,11 @@
       <c r="E250" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F250" s="1">
+        <v>24360.210938</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>24479.449218999998</v>
       </c>
@@ -6500,8 +7257,11 @@
       <c r="E251" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F251" s="1">
+        <v>24357.320313</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>24333.349609000001</v>
       </c>
@@ -6517,8 +7277,11 @@
       <c r="E252" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F252" s="1">
+        <v>24262.509765999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>23996.150390999999</v>
       </c>
@@ -6534,8 +7297,11 @@
       <c r="E253" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F253" s="1">
+        <v>23930.150390999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>24185.519531000002</v>
       </c>
@@ -6551,8 +7317,11 @@
       <c r="E254" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F254" s="1">
+        <v>23924.980468999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>24117.289063</v>
       </c>
@@ -6568,8 +7337,11 @@
       <c r="E255" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F255" s="1">
+        <v>24099.050781000002</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>24498.230468999998</v>
       </c>
@@ -6585,8 +7357,11 @@
       <c r="E256" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F256" s="1">
+        <v>24163.150390999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>24359.380859000001</v>
       </c>
@@ -6602,8 +7377,11 @@
       <c r="E257" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F257" s="1">
+        <v>24311.189452999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>24402.460938</v>
       </c>
@@ -6619,8 +7397,11 @@
       <c r="E258" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F258" s="1">
+        <v>24322.339843999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>24146.339843999998</v>
       </c>
@@ -6636,8 +7417,11 @@
       <c r="E259" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F259" s="1">
+        <v>24083.830077999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>24579.939452999999</v>
       </c>
@@ -6653,8 +7437,11 @@
       <c r="E260" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F260" s="1">
+        <v>24024.130859000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>24536.890625</v>
       </c>
@@ -6670,8 +7457,11 @@
       <c r="E261" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F261" s="1">
+        <v>24448.689452999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>24678.070313</v>
       </c>
@@ -6687,8 +7477,11 @@
       <c r="E262" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F262" s="1">
+        <v>24462.939452999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>24762.480468999998</v>
       </c>
@@ -6704,8 +7497,11 @@
       <c r="E263" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F263" s="1">
+        <v>24664.890625</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>24832.539063</v>
       </c>
@@ -6721,8 +7517,11 @@
       <c r="E264" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F264" s="1">
+        <v>24748.070313</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>24858.970702999999</v>
       </c>
@@ -6738,8 +7537,11 @@
       <c r="E265" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F265" s="1">
+        <v>24786.630859000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>24675.359375</v>
       </c>
@@ -6755,8 +7557,11 @@
       <c r="E266" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F266" s="1">
+        <v>24573.039063</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>24646.449218999998</v>
       </c>
@@ -6772,8 +7577,11 @@
       <c r="E267" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F267" s="1">
+        <v>24360.140625</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>24592.119140999999</v>
       </c>
@@ -6789,8 +7597,11 @@
       <c r="E268" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F268" s="1">
+        <v>24483.050781000002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>24366.570313</v>
       </c>
@@ -6806,8 +7617,11 @@
       <c r="E269" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F269" s="1">
+        <v>24189.449218999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>24511.349609000001</v>
       </c>
@@ -6823,8 +7637,11 @@
       <c r="E270" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F270" s="1">
+        <v>24408</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>24373.179688</v>
       </c>
@@ -6840,8 +7657,11 @@
       <c r="E271" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F271" s="1">
+        <v>23979.099609000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>24434.400390999999</v>
       </c>
@@ -6857,8 +7677,11 @@
       <c r="E272" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F272" s="1">
+        <v>23932.759765999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>24622.259765999999</v>
       </c>
@@ -6874,8 +7697,11 @@
       <c r="E273" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F273" s="1">
+        <v>24505.220702999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>24308.960938</v>
       </c>
@@ -6891,8 +7717,11 @@
       <c r="E274" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F274" s="1">
+        <v>24264.300781000002</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>24044.349609000001</v>
       </c>
@@ -6908,8 +7737,11 @@
       <c r="E275" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F275" s="1">
+        <v>24033.359375</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>24123.800781000002</v>
       </c>
@@ -6925,8 +7757,11 @@
       <c r="E276" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F276" s="1">
+        <v>23644.189452999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>24314.300781000002</v>
       </c>
@@ -6942,8 +7777,11 @@
       <c r="E277" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F277" s="1">
+        <v>24103.109375</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>24092.470702999999</v>
       </c>
@@ -6959,8 +7797,11 @@
       <c r="E278" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F278" s="1">
+        <v>23848.419922000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>24446.220702999999</v>
       </c>
@@ -6976,8 +7817,11 @@
       <c r="E279" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F279" s="1">
+        <v>23857.710938</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>24232.300781000002</v>
       </c>
@@ -6993,8 +7837,11 @@
       <c r="E280" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F280" s="1">
+        <v>24202.599609000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>24108.470702999999</v>
       </c>
@@ -7010,8 +7857,11 @@
       <c r="E281" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F281" s="1">
+        <v>23533.199218999998</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>24526.009765999999</v>
       </c>
@@ -7027,8 +7877,11 @@
       <c r="E282" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F282" s="1">
+        <v>23957.890625</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>24977.650390999999</v>
       </c>
@@ -7044,8 +7897,11 @@
       <c r="E283" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F283" s="1">
+        <v>24682.310547000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>24803.609375</v>
       </c>
@@ -7061,8 +7917,11 @@
       <c r="E284" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F284" s="1">
+        <v>24727.269531000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>24893.689452999999</v>
       </c>
@@ -7078,8 +7937,11 @@
       <c r="E285" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F285" s="1">
+        <v>24610.910156000002</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>25031</v>
       </c>
@@ -7095,8 +7957,11 @@
       <c r="E286" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F286" s="1">
+        <v>24946.509765999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>25053.869140999999</v>
       </c>
@@ -7112,8 +7977,11 @@
       <c r="E287" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F287" s="1">
+        <v>24873.660156000002</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>25130.119140999999</v>
       </c>
@@ -7129,8 +7997,11 @@
       <c r="E288" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F288" s="1">
+        <v>24758.119140999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>25376.400390999999</v>
       </c>
@@ -7146,8 +8017,11 @@
       <c r="E289" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F289" s="1">
+        <v>25007.029297000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>25449.150390999999</v>
       </c>
@@ -7163,8 +8037,11 @@
       <c r="E290" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F290" s="1">
+        <v>25178.609375</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>25336.330077999999</v>
       </c>
@@ -7180,8 +8057,11 @@
       <c r="E291" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F291" s="1">
+        <v>25335.740234000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>24950.490234000001</v>
       </c>
@@ -7197,8 +8077,11 @@
       <c r="E292" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F292" s="1">
+        <v>24895.210938</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>24849.679688</v>
       </c>
@@ -7214,8 +8097,11 @@
       <c r="E293" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F293" s="1">
+        <v>24801.359375</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>24995.240234000001</v>
       </c>
@@ -7231,8 +8117,11 @@
       <c r="E294" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F294" s="1">
+        <v>24884.119140999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>24961</v>
       </c>
@@ -7248,8 +8137,11 @@
       <c r="E295" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F295" s="1">
+        <v>24874.759765999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>24592.460938</v>
       </c>
@@ -7265,8 +8157,11 @@
       <c r="E296" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F296" s="1">
+        <v>24538.060547000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>25185.349609000001</v>
       </c>
@@ -7282,8 +8177,11 @@
       <c r="E297" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F297" s="1">
+        <v>24608.980468999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>25576.150390999999</v>
       </c>
@@ -7299,8 +8197,11 @@
       <c r="E298" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F298" s="1">
+        <v>25029.199218999998</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>25800.349609000001</v>
       </c>
@@ -7316,8 +8217,11 @@
       <c r="E299" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F299" s="1">
+        <v>25410.029297000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>25732.800781000002</v>
       </c>
@@ -7333,8 +8237,11 @@
       <c r="E300" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F300" s="1">
+        <v>25709.269531000002</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>25313.910156000002</v>
       </c>
@@ -7350,8 +8257,11 @@
       <c r="E301" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F301" s="1">
+        <v>25309.990234000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>25156.720702999999</v>
       </c>
@@ -7367,8 +8277,11 @@
       <c r="E302" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F302" s="1">
+        <v>24962.480468999998</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>25267.990234000001</v>
       </c>
@@ -7384,8 +8297,11 @@
       <c r="E303" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F303" s="1">
+        <v>24797.779297000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>25179.009765999999</v>
       </c>
@@ -7401,8 +8317,11 @@
       <c r="E304" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F304" s="1">
+        <v>24964.75</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>25432.419922000001</v>
       </c>
@@ -7418,8 +8337,11 @@
       <c r="E305" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F305" s="1">
+        <v>25219.380859000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>25203.949218999998</v>
       </c>
@@ -7435,8 +8357,11 @@
       <c r="E306" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F306" s="1">
+        <v>25200.369140999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>24925.949218999998</v>
       </c>
@@ -7452,8 +8377,11 @@
       <c r="E307" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F307" s="1">
+        <v>24893.490234000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>24705.720702999999</v>
       </c>
@@ -7469,8 +8397,11 @@
       <c r="E308" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F308" s="1">
+        <v>24640.449218999998</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>24765.160156000002</v>
       </c>
@@ -7486,8 +8417,11 @@
       <c r="E309" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F309" s="1">
+        <v>24601.269531000002</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>24382.140625</v>
       </c>
@@ -7503,8 +8437,11 @@
       <c r="E310" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F310" s="1">
+        <v>24190.900390999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>24903.679688</v>
       </c>
@@ -7520,8 +8457,11 @@
       <c r="E311" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F311" s="1">
+        <v>23860.460938</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>25293.960938</v>
       </c>
@@ -7537,8 +8477,11 @@
       <c r="E312" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F312" s="1">
+        <v>24893.349609000001</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>24946.230468999998</v>
       </c>
@@ -7554,8 +8497,11 @@
       <c r="E313" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F313" s="1">
+        <v>24912.769531000002</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>25520.529297000001</v>
       </c>
@@ -7571,8 +8517,11 @@
       <c r="E314" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F314" s="1">
+        <v>24345.75</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>26061.789063</v>
       </c>
@@ -7588,8 +8537,11 @@
       <c r="E315" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F315" s="1">
+        <v>25520.960938</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>26306.699218999998</v>
       </c>
@@ -7605,8 +8557,11 @@
       <c r="E316" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F316" s="1">
+        <v>26186.710938</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>26338.029297000001</v>
       </c>
@@ -7622,8 +8577,11 @@
       <c r="E317" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F317" s="1">
+        <v>26149.390625</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>26256.990234000001</v>
       </c>
@@ -7639,8 +8597,11 @@
       <c r="E318" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F318" s="1">
+        <v>26076.890625</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>26608.900390999999</v>
       </c>
@@ -7656,8 +8617,11 @@
       <c r="E319" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F319" s="1">
+        <v>26439.480468999998</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>26616.710938</v>
       </c>
@@ -7673,8 +8637,11 @@
       <c r="E320" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F320" s="1">
+        <v>26616.710938</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>26458.25</v>
       </c>
@@ -7690,8 +8657,11 @@
       <c r="E321" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F321" s="1">
+        <v>26392.789063</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>26392.800781000002</v>
       </c>
@@ -7707,8 +8677,11 @@
       <c r="E322" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F322" s="1">
+        <v>26252.119140999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>26246.189452999999</v>
       </c>
@@ -7724,8 +8697,11 @@
       <c r="E323" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F323" s="1">
+        <v>26210.810547000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>26215.230468999998</v>
       </c>
@@ -7741,8 +8717,11 @@
       <c r="E324" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F324" s="1">
+        <v>26214.599609000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>26071.720702999999</v>
       </c>
@@ -7758,8 +8737,11 @@
       <c r="E325" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F325" s="1">
+        <v>26071.720702999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>26153.419922000001</v>
       </c>
@@ -7775,8 +8757,11 @@
       <c r="E326" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F326" s="1">
+        <v>26017.810547000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>26130.449218999998</v>
       </c>
@@ -7792,8 +8777,11 @@
       <c r="E327" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F327" s="1">
+        <v>26115.650390999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>26086.119140999999</v>
       </c>
@@ -7809,8 +8797,11 @@
       <c r="E328" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F328" s="1">
+        <v>25792.859375</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>25810.429688</v>
       </c>
@@ -7826,8 +8817,11 @@
       <c r="E329" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F329" s="1">
+        <v>25803.189452999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>25575.419922000001</v>
       </c>
@@ -7843,8 +8837,11 @@
       <c r="E330" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F330" s="1">
+        <v>25574.730468999998</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>25404.919922000001</v>
       </c>
@@ -7860,8 +8857,11 @@
       <c r="E331" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F331" s="1">
+        <v>25369.130859000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>25439.779297000001</v>
       </c>
@@ -7877,8 +8877,11 @@
       <c r="E332" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F332" s="1">
+        <v>25385.800781000002</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>25311.990234000001</v>
       </c>
@@ -7894,8 +8897,11 @@
       <c r="E333" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F333" s="1">
+        <v>25283</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>25299.789063</v>
       </c>
@@ -7911,8 +8917,11 @@
       <c r="E334" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F334" s="1">
+        <v>25295.869140999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>25105.960938</v>
       </c>
@@ -7928,8 +8937,11 @@
       <c r="E335" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F335" s="1">
+        <v>25075.130859000001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>24941.919922000001</v>
       </c>
@@ -7945,8 +8957,11 @@
       <c r="E336" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F336" s="1">
+        <v>24922.679688</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>24864.189452999999</v>
       </c>
@@ -7962,8 +8977,11 @@
       <c r="E337" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F337" s="1">
+        <v>24824.009765999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>24871.660156000002</v>
       </c>
@@ -7979,8 +8997,11 @@
       <c r="E338" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F338" s="1">
+        <v>24719.220702999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>24839.230468999998</v>
       </c>
@@ -7996,8 +9017,11 @@
       <c r="E339" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F339" s="1">
+        <v>24837.509765999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>24789.519531000002</v>
       </c>
@@ -8013,8 +9037,11 @@
       <c r="E340" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F340" s="1">
+        <v>24774.300781000002</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>24778.130859000001</v>
       </c>
@@ -8030,8 +9057,11 @@
       <c r="E341" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F341" s="1">
+        <v>24746.210938</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>24784.150390999999</v>
       </c>
@@ -8047,8 +9077,11 @@
       <c r="E342" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F342" s="1">
+        <v>24754.060547000001</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>24850.910156000002</v>
       </c>
@@ -8064,8 +9097,11 @@
       <c r="E343" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F343" s="1">
+        <v>24782.289063</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>24852.439452999999</v>
       </c>
@@ -8081,8 +9117,11 @@
       <c r="E344" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F344" s="1">
+        <v>24726.650390999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>24850.109375</v>
       </c>
@@ -8098,8 +9137,11 @@
       <c r="E345" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F345" s="1">
+        <v>24754.75</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>24876.070313</v>
       </c>
@@ -8115,8 +9157,11 @@
       <c r="E346" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F346" s="1">
+        <v>24792.199218999998</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>24688.619140999999</v>
       </c>
@@ -8132,8 +9177,11 @@
       <c r="E347" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F347" s="1">
+        <v>24651.740234000001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>24672.480468999998</v>
       </c>
@@ -8149,8 +9197,11 @@
       <c r="E348" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F348" s="1">
+        <v>24508.660156000002</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>24666.019531000002</v>
       </c>
@@ -8166,8 +9217,11 @@
       <c r="E349" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F349" s="1">
+        <v>24585.429688</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>24552.970702999999</v>
       </c>
@@ -8183,8 +9237,11 @@
       <c r="E350" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F350" s="1">
+        <v>24504.800781000002</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>24389.720702999999</v>
       </c>
@@ -8200,8 +9257,11 @@
       <c r="E351" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F351" s="1">
+        <v>24386.029297000001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>24330.119140999999</v>
       </c>
@@ -8217,8 +9277,11 @@
       <c r="E352" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F352" s="1">
+        <v>24329.160156000002</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>24262.880859000001</v>
       </c>
@@ -8234,8 +9297,11 @@
       <c r="E353" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F353" s="1">
+        <v>24211.480468999998</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>24229.349609000001</v>
       </c>
@@ -8251,8 +9317,11 @@
       <c r="E354" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F354" s="1">
+        <v>24140.910156000002</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>24349.740234000001</v>
       </c>
@@ -8268,8 +9337,11 @@
       <c r="E355" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F355" s="1">
+        <v>24180.640625</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>24534.039063</v>
       </c>
@@ -8285,8 +9357,11 @@
       <c r="E356" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F356" s="1">
+        <v>24290.050781000002</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>24322.060547000001</v>
       </c>
@@ -8302,8 +9377,11 @@
       <c r="E357" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F357" s="1">
+        <v>24231.589843999998</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>24327.820313</v>
       </c>
@@ -8319,8 +9397,11 @@
       <c r="E358" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F358" s="1">
+        <v>24272.349609000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>23959.759765999999</v>
       </c>
@@ -8336,8 +9417,11 @@
       <c r="E359" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F359" s="1">
+        <v>23940.679688</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>23849.609375</v>
       </c>
@@ -8353,8 +9437,11 @@
       <c r="E360" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F360" s="1">
+        <v>23836.710938</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>23638.919922000001</v>
       </c>
@@ -8370,8 +9457,11 @@
       <c r="E361" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F361" s="1">
+        <v>23580.779297000001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>23599.179688</v>
       </c>
@@ -8387,8 +9477,11 @@
       <c r="E362" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F362" s="1">
+        <v>23557.990234000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>23605.769531000002</v>
       </c>
@@ -8404,8 +9497,11 @@
       <c r="E363" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F363" s="1">
+        <v>23526.179688</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>23617.800781000002</v>
       </c>
@@ -8421,8 +9517,11 @@
       <c r="E364" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F364" s="1">
+        <v>23590.830077999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>23456.880859000001</v>
       </c>
@@ -8438,8 +9537,11 @@
       <c r="E365" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F365" s="1">
+        <v>23430.330077999999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>23433.769531000002</v>
       </c>
@@ -8455,8 +9557,11 @@
       <c r="E366" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F366" s="1">
+        <v>23358.240234000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>23492.189452999999</v>
       </c>
@@ -8472,8 +9577,11 @@
       <c r="E367" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F367" s="1">
+        <v>23458.359375</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>23344.990234000001</v>
       </c>
@@ -8489,8 +9597,11 @@
       <c r="E368" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F368" s="1">
+        <v>23271.279297000001</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>23414.080077999999</v>
       </c>
@@ -8506,8 +9617,11 @@
       <c r="E369" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F369" s="1">
+        <v>23409.470702999999</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>23461.679688</v>
       </c>
@@ -8523,8 +9637,11 @@
       <c r="E370" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F370" s="1">
+        <v>23439.699218999998</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>23452.199218999998</v>
       </c>
@@ -8540,8 +9657,11 @@
       <c r="E371" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F371" s="1">
+        <v>23422.210938</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>23516.740234000001</v>
       </c>
@@ -8557,8 +9677,11 @@
       <c r="E372" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F372" s="1">
+        <v>23461.939452999999</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>23575</v>
       </c>
@@ -8574,8 +9697,11 @@
       <c r="E373" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F373" s="1">
+        <v>23563.359375</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>23602.119140999999</v>
       </c>
@@ -8591,8 +9717,11 @@
       <c r="E374" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F374" s="1">
+        <v>23557.230468999998</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>23574.859375</v>
       </c>
@@ -8608,8 +9737,11 @@
       <c r="E375" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F375" s="1">
+        <v>23548.419922000001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>23557.060547000001</v>
       </c>
@@ -8625,8 +9757,11 @@
       <c r="E376" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F376" s="1">
+        <v>23539.189452999999</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>23531.380859000001</v>
       </c>
@@ -8642,8 +9777,11 @@
       <c r="E377" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F377" s="1">
+        <v>23516.259765999999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>23517.710938</v>
       </c>
@@ -8659,8 +9797,11 @@
       <c r="E378" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F378" s="1">
+        <v>23435.009765999999</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>23406.349609000001</v>
       </c>
@@ -8676,8 +9817,11 @@
       <c r="E379" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F379" s="1">
+        <v>23377.240234000001</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>23428.75</v>
       </c>
@@ -8693,8 +9837,11 @@
       <c r="E380" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F380" s="1">
+        <v>23348.740234000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>23449.400390999999</v>
       </c>
@@ -8710,8 +9857,11 @@
       <c r="E381" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F381" s="1">
+        <v>23434.189452999999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>23459.839843999998</v>
       </c>
@@ -8727,8 +9877,11 @@
       <c r="E382" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F382" s="1">
+        <v>23400.859375</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>23451.509765999999</v>
       </c>
@@ -8744,8 +9897,11 @@
       <c r="E383" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F383" s="1">
+        <v>23329.460938</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>23485.25</v>
       </c>
@@ -8761,8 +9917,11 @@
       <c r="E384" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F384" s="1">
+        <v>23441.759765999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>23368.369140999999</v>
       </c>
@@ -8778,8 +9937,11 @@
       <c r="E385" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F385" s="1">
+        <v>23273.960938</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>23328.839843999998</v>
       </c>
@@ -8795,8 +9957,11 @@
       <c r="E386" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F386" s="1">
+        <v>23328.630859000001</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>23167.240234000001</v>
       </c>
@@ -8812,8 +9977,11 @@
       <c r="E387" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F387" s="1">
+        <v>23163.039063</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>23172.929688</v>
       </c>
@@ -8829,8 +9997,11 @@
       <c r="E388" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F388" s="1">
+        <v>23157.599609000001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>23002.199218999998</v>
       </c>
@@ -8846,8 +10017,11 @@
       <c r="E389" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F389" s="1">
+        <v>22997.439452999999</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>22960.119140999999</v>
       </c>
@@ -8863,8 +10037,11 @@
       <c r="E390" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F390" s="1">
+        <v>22956.960938</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>22905.330077999999</v>
       </c>
@@ -8880,8 +10057,11 @@
       <c r="E391" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F391" s="1">
+        <v>22871.720702999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>22884.820313</v>
       </c>
@@ -8897,8 +10077,11 @@
       <c r="E392" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F392" s="1">
+        <v>22841.009765999999</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>22872.890625</v>
       </c>
@@ -8914,8 +10097,11 @@
       <c r="E393" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F393" s="1">
+        <v>22872.890625</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>22850.509765999999</v>
       </c>
@@ -8931,8 +10117,11 @@
       <c r="E394" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F394" s="1">
+        <v>22830.679688</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>22803.369140999999</v>
       </c>
@@ -8948,8 +10137,11 @@
       <c r="E395" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F395" s="1">
+        <v>22761.070313</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>22773.669922000001</v>
       </c>
@@ -8965,8 +10157,11 @@
       <c r="E396" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F396" s="1">
+        <v>22773.669922000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>22777.039063</v>
       </c>
@@ -8982,8 +10177,11 @@
       <c r="E397" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F397" s="1">
+        <v>22775.390625</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>22685.939452999999</v>
       </c>
@@ -8999,8 +10197,11 @@
       <c r="E398" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F398" s="1">
+        <v>22661.640625</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>22646.320313</v>
       </c>
@@ -9016,8 +10217,11 @@
       <c r="E399" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F399" s="1">
+        <v>22641.669922000001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>22559.380859000001</v>
       </c>
@@ -9033,8 +10237,11 @@
       <c r="E400" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F400" s="1">
+        <v>22557.599609000001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>22405.630859000001</v>
       </c>
@@ -9050,8 +10257,11 @@
       <c r="E401" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F401" s="1">
+        <v>22405.089843999998</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>22394.740234000001</v>
       </c>
@@ -9067,8 +10277,11 @@
       <c r="E402" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F402" s="1">
+        <v>22381.199218999998</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>22371.099609000001</v>
       </c>
@@ -9084,8 +10297,11 @@
       <c r="E403" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F403" s="1">
+        <v>22340.710938</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>22369.349609000001</v>
       </c>
@@ -9101,8 +10317,11 @@
       <c r="E404" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F404" s="1">
+        <v>22284.320313</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>22359.880859000001</v>
       </c>
@@ -9118,8 +10337,11 @@
       <c r="E405" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F405" s="1">
+        <v>22296.089843999998</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>22364.310547000001</v>
       </c>
@@ -9135,8 +10357,11 @@
       <c r="E406" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F406" s="1">
+        <v>22349.589843999998</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>22419.509765999999</v>
       </c>
@@ -9152,8 +10377,11 @@
       <c r="E407" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F407" s="1">
+        <v>22359.230468999998</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>22413.259765999999</v>
       </c>
@@ -9169,8 +10397,11 @@
       <c r="E408" s="1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F408" s="1">
+        <v>22412.589843999998</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>22386.009765999999</v>
       </c>
@@ -9186,8 +10417,11 @@
       <c r="E409" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F409" s="1">
+        <v>22370.800781000002</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>22355.619140999999</v>
       </c>
@@ -9203,8 +10437,11 @@
       <c r="E410" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F410" s="1">
+        <v>22331.349609000001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>22275.019531000002</v>
       </c>
@@ -9220,8 +10457,11 @@
       <c r="E411" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F411" s="1">
+        <v>22268.339843999998</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>22216.439452999999</v>
       </c>
@@ -9237,8 +10477,11 @@
       <c r="E412" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F412" s="1">
+        <v>22203.480468999998</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>22158.179688</v>
       </c>
@@ -9254,8 +10497,11 @@
       <c r="E413" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F413" s="1">
+        <v>22158.179688</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>22134.570313</v>
       </c>
@@ -9271,8 +10517,11 @@
       <c r="E414" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F414" s="1">
+        <v>22118.859375</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>22067.099609000001</v>
       </c>
@@ -9288,8 +10537,11 @@
       <c r="E415" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F415" s="1">
+        <v>22057.369140999999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>21846.630859000001</v>
       </c>
@@ -9305,8 +10557,11 @@
       <c r="E416" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F416" s="1">
+        <v>21797.789063</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>21850.009765999999</v>
       </c>
@@ -9322,8 +10577,11 @@
       <c r="E417" s="1" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F417" s="1">
+        <v>21784.779297000001</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>21849.240234000001</v>
       </c>
@@ -9339,8 +10597,11 @@
       <c r="E418" s="1" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F418" s="1">
+        <v>21807.640625</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>21921.089843999998</v>
       </c>
@@ -9356,8 +10617,11 @@
       <c r="E419" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F419" s="1">
+        <v>21753.310547000001</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>22038.970702999999</v>
       </c>
@@ -9373,8 +10637,11 @@
       <c r="E420" s="1" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F420" s="1">
+        <v>21987.560547000001</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>21985.759765999999</v>
       </c>
@@ -9390,8 +10657,11 @@
       <c r="E421" s="1" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F421" s="1">
+        <v>21948.099609000001</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>21914.259765999999</v>
       </c>
@@ -9407,8 +10677,11 @@
       <c r="E422" s="1" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F422" s="1">
+        <v>21892.429688</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>21879.220702999999</v>
       </c>
@@ -9424,8 +10697,11 @@
       <c r="E423" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F423" s="1">
+        <v>21865.369140999999</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>21861.490234000001</v>
       </c>
@@ -9441,8 +10717,11 @@
       <c r="E424" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F424" s="1">
+        <v>21808.400390999999</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>21906.859375</v>
       </c>
@@ -9458,8 +10737,11 @@
       <c r="E425" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F425" s="1">
+        <v>21813.669922000001</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>21870.109375</v>
       </c>
@@ -9475,8 +10757,11 @@
       <c r="E426" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F426" s="1">
+        <v>21783.400390999999</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>21866.660156000002</v>
       </c>
@@ -9492,8 +10777,11 @@
       <c r="E427" s="1" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F427" s="1">
+        <v>21812.089843999998</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>21912.830077999999</v>
       </c>
@@ -9509,8 +10797,11 @@
       <c r="E428" s="1" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F428" s="1">
+        <v>21899.890625</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>21718.740234000001</v>
       </c>
@@ -9526,8 +10817,11 @@
       <c r="E429" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F429" s="1">
+        <v>21703.75</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>21793.349609000001</v>
       </c>
@@ -9543,8 +10837,11 @@
       <c r="E430" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F430" s="1">
+        <v>21674.509765999999</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>21984.740234000001</v>
       </c>
@@ -9560,8 +10857,11 @@
       <c r="E431" s="1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F431" s="1">
+        <v>21750.730468999998</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>22085.710938</v>
       </c>
@@ -9577,8 +10877,11 @@
       <c r="E432" s="1" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F432" s="1">
+        <v>22024.869140999999</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>22038.919922000001</v>
       </c>
@@ -9594,8 +10897,11 @@
       <c r="E433" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F433" s="1">
+        <v>21998.990234000001</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>22019.230468999998</v>
       </c>
@@ -9611,8 +10917,11 @@
       <c r="E434" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F434" s="1">
+        <v>21993.710938</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>21911.089843999998</v>
       </c>
@@ -9628,8 +10937,11 @@
       <c r="E435" s="1" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F435" s="1">
+        <v>21858.320313</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>21988.199218999998</v>
       </c>
@@ -9645,8 +10957,11 @@
       <c r="E436" s="1" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F436" s="1">
+        <v>21844.009765999999</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>22057.189452999999</v>
       </c>
@@ -9662,8 +10977,11 @@
       <c r="E437" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F437" s="1">
+        <v>22048.699218999998</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>22179.109375</v>
       </c>
@@ -9679,8 +10997,11 @@
       <c r="E438" s="1" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F438" s="1">
+        <v>22085.339843999998</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>22121.150390999999</v>
       </c>
@@ -9696,8 +11017,11 @@
       <c r="E439" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F439" s="1">
+        <v>22118.419922000001</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>22092.810547000001</v>
       </c>
@@ -9713,8 +11037,11 @@
       <c r="E440" s="1" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F440" s="1">
+        <v>22092.810547000001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>22044.849609000001</v>
       </c>
@@ -9730,8 +11057,11 @@
       <c r="E441" s="1" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F441" s="1">
+        <v>22026.099609000001</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>22036.099609000001</v>
       </c>
@@ -9747,8 +11077,11 @@
       <c r="E442" s="1" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F442" s="1">
+        <v>22016.240234000001</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>21990.960938</v>
       </c>
@@ -9764,8 +11097,11 @@
       <c r="E443" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F443" s="1">
+        <v>21963.919922000001</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>21929.800781000002</v>
       </c>
@@ -9781,8 +11117,11 @@
       <c r="E444" s="1" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F444" s="1">
+        <v>21891.119140999999</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>21841.179688</v>
       </c>
@@ -9798,8 +11137,11 @@
       <c r="E445" s="1" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F445" s="1">
+        <v>21830.310547000001</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>21798.470702999999</v>
       </c>
@@ -9815,8 +11157,11 @@
       <c r="E446" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F446" s="1">
+        <v>21796.550781000002</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>21742.699218999998</v>
       </c>
@@ -9832,8 +11177,11 @@
       <c r="E447" s="1" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F447" s="1">
+        <v>21711.009765999999</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>21670.619140999999</v>
       </c>
@@ -9849,8 +11197,11 @@
       <c r="E448" s="1" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F448" s="1">
+        <v>21613.429688</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>21577.779297000001</v>
       </c>
@@ -9866,8 +11217,11 @@
       <c r="E449" s="1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F449" s="1">
+        <v>21513.169922000001</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>21592.609375</v>
       </c>
@@ -9883,8 +11237,11 @@
       <c r="E450" s="1" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F450" s="1">
+        <v>21580.070313</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>21661.910156000002</v>
       </c>
@@ -9900,8 +11257,11 @@
       <c r="E451" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F451" s="1">
+        <v>21611.779297000001</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>21640.75</v>
       </c>
@@ -9917,8 +11277,11 @@
       <c r="E452" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F452" s="1">
+        <v>21640.75</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>21589.939452999999</v>
       </c>
@@ -9934,8 +11297,11 @@
       <c r="E453" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F453" s="1">
+        <v>21574.730468999998</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>21661.810547000001</v>
       </c>
@@ -9951,8 +11317,11 @@
       <c r="E454" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F454" s="1">
+        <v>21629.720702999999</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>21681.529297000001</v>
       </c>
@@ -9968,8 +11337,11 @@
       <c r="E455" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F455" s="1">
+        <v>21637.740234000001</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>21568.720702999999</v>
       </c>
@@ -9985,8 +11357,11 @@
       <c r="E456" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F456" s="1">
+        <v>21553.089843999998</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>21580.789063</v>
       </c>
@@ -10002,8 +11377,11 @@
       <c r="E457" s="1" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F457" s="1">
+        <v>21532.140625</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>21441.619140999999</v>
       </c>
@@ -10019,8 +11397,11 @@
       <c r="E458" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F458" s="1">
+        <v>21409.070313</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>21446.390625</v>
       </c>
@@ -10036,8 +11417,11 @@
       <c r="E459" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F459" s="1">
+        <v>21408.519531000002</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>21425.820313</v>
       </c>
@@ -10053,8 +11437,11 @@
       <c r="E460" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F460" s="1">
+        <v>21414.339843999998</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>21433.099609000001</v>
       </c>
@@ -10070,8 +11457,11 @@
       <c r="E461" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F461" s="1">
+        <v>21320.039063</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>21505.359375</v>
       </c>
@@ -10087,8 +11477,11 @@
       <c r="E462" s="1" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F462" s="1">
+        <v>21478.169922000001</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>21562.75</v>
       </c>
@@ -10104,8 +11497,11 @@
       <c r="E463" s="1" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F463" s="1">
+        <v>21479.269531000002</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>21426.119140999999</v>
       </c>
@@ -10121,8 +11517,11 @@
       <c r="E464" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F464" s="1">
+        <v>21349.630859000001</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>21487.380859000001</v>
       </c>
@@ -10138,8 +11537,11 @@
       <c r="E465" s="1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F465" s="1">
+        <v>21287.029297000001</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>21478.75</v>
       </c>
@@ -10155,8 +11557,11 @@
       <c r="E466" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F466" s="1">
+        <v>21454.609375</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>21440.599609000001</v>
       </c>
@@ -10172,8 +11577,11 @@
       <c r="E467" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F467" s="1">
+        <v>21310.660156000002</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>21506.210938</v>
       </c>
@@ -10189,8 +11597,11 @@
       <c r="E468" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F468" s="1">
+        <v>21409.550781000002</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>21421.789063</v>
       </c>
@@ -10206,8 +11617,11 @@
       <c r="E469" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F469" s="1">
+        <v>21394.759765999999</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>21456.470702999999</v>
       </c>
@@ -10223,8 +11637,11 @@
       <c r="E470" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F470" s="1">
+        <v>21397.289063</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>21492.619140999999</v>
       </c>
@@ -10240,8 +11657,11 @@
       <c r="E471" s="1" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F471" s="1">
+        <v>21410.029297000001</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>21535.029297000001</v>
       </c>
@@ -10257,8 +11677,11 @@
       <c r="E472" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F472" s="1">
+        <v>21467.140625</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>21528.990234000001</v>
       </c>
@@ -10274,8 +11697,11 @@
       <c r="E473" s="1" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F473" s="1">
+        <v>21528.990234000001</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>21384.419922000001</v>
       </c>
@@ -10291,8 +11717,11 @@
       <c r="E474" s="1" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F474" s="1">
+        <v>21384.279297000001</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>21367.279297000001</v>
       </c>
@@ -10308,8 +11737,11 @@
       <c r="E475" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F475" s="1">
+        <v>21359.900390999999</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>21391.970702999999</v>
       </c>
@@ -10325,8 +11757,11 @@
       <c r="E476" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F476" s="1">
+        <v>21374.560547000001</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>21332.769531000002</v>
       </c>
@@ -10342,8 +11777,11 @@
       <c r="E477" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F477" s="1">
+        <v>21328.470702999999</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>21277.080077999999</v>
       </c>
@@ -10359,8 +11797,11 @@
       <c r="E478" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F478" s="1">
+        <v>21235.669922000001</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>21305.349609000001</v>
       </c>
@@ -10376,8 +11817,11 @@
       <c r="E479" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F479" s="1">
+        <v>21271.970702999999</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>21265.689452999999</v>
       </c>
@@ -10393,8 +11837,11 @@
       <c r="E480" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F480" s="1">
+        <v>21182.529297000001</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>21189.839843999998</v>
       </c>
@@ -10410,8 +11857,11 @@
       <c r="E481" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F481" s="1">
+        <v>21173.689452999999</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>21180.470702999999</v>
       </c>
@@ -10427,8 +11877,11 @@
       <c r="E482" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F482" s="1">
+        <v>21136.230468999998</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>21224.410156000002</v>
       </c>
@@ -10444,8 +11897,11 @@
       <c r="E483" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F483" s="1">
+        <v>21184.039063</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>21225.039063</v>
       </c>
@@ -10461,8 +11917,11 @@
       <c r="E484" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F484" s="1">
+        <v>21206.289063</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>21144.179688</v>
       </c>
@@ -10478,8 +11937,11 @@
       <c r="E485" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F485" s="1">
+        <v>21144.179688</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>21051.699218999998</v>
       </c>
@@ -10495,8 +11957,11 @@
       <c r="E486" s="1" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F486" s="1">
+        <v>21008.650390999999</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>21063.619140999999</v>
       </c>
@@ -10512,8 +11977,11 @@
       <c r="E487" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F487" s="1">
+        <v>21029.470702999999</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>21092.820313</v>
       </c>
@@ -10529,8 +11997,11 @@
       <c r="E488" s="1" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F488" s="1">
+        <v>21080.279297000001</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>21112.320313</v>
       </c>
@@ -10546,8 +12017,11 @@
       <c r="E489" s="1" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F489" s="1">
+        <v>21082.949218999998</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>21022.820313</v>
       </c>
@@ -10563,8 +12037,11 @@
       <c r="E490" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F490" s="1">
+        <v>21012.419922000001</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>20961.140625</v>
       </c>
@@ -10580,8 +12057,11 @@
       <c r="E491" s="1" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F491" s="1">
+        <v>20937.910156000002</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>20914.259765999999</v>
       </c>
@@ -10597,8 +12077,11 @@
       <c r="E492" s="1" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F492" s="1">
+        <v>20894.830077999999</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>20857.130859000001</v>
       </c>
@@ -10614,8 +12097,11 @@
       <c r="E493" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F493" s="1">
+        <v>20804.839843999998</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>20759.199218999998</v>
       </c>
@@ -10631,8 +12117,11 @@
       <c r="E494" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F494" s="1">
+        <v>20663.019531000002</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>20846.169922000001</v>
       </c>
@@ -10648,8 +12137,11 @@
       <c r="E495" s="1" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F495" s="1">
+        <v>20606.929688</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>21033.529297000001</v>
       </c>
@@ -10665,8 +12157,11 @@
       <c r="E496" s="1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F496" s="1">
+        <v>20979.75</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>21000.830077999999</v>
       </c>
@@ -10682,8 +12177,11 @@
       <c r="E497" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F497" s="1">
+        <v>20981.939452999999</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>20916.099609000001</v>
       </c>
@@ -10699,8 +12197,11 @@
       <c r="E498" s="1" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F498" s="1">
+        <v>20896.609375</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>20933.359375</v>
       </c>
@@ -10716,8 +12217,11 @@
       <c r="E499" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F499" s="1">
+        <v>20919.419922000001</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>20976.279297000001</v>
       </c>
@@ -10733,8 +12237,11 @@
       <c r="E500" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F500" s="1">
+        <v>20943.109375</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>21046.849609000001</v>
       </c>
@@ -10750,8 +12257,11 @@
       <c r="E501" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F501" s="1">
+        <v>20975.779297000001</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>21017.890625</v>
       </c>
@@ -10767,8 +12277,11 @@
       <c r="E502" s="1" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F502" s="1">
+        <v>21012.279297000001</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>21006.939452999999</v>
       </c>
@@ -10784,8 +12297,11 @@
       <c r="E503" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F503" s="1">
+        <v>21006.939452999999</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>20990.789063</v>
       </c>
@@ -10801,8 +12317,11 @@
       <c r="E504" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F504" s="1">
+        <v>20951.470702999999</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>20972.740234000001</v>
       </c>
@@ -10818,8 +12337,11 @@
       <c r="E505" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F505" s="1">
+        <v>20957.900390999999</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>20960.919922000001</v>
       </c>
@@ -10835,8 +12357,11 @@
       <c r="E506" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F506" s="1">
+        <v>20949.890625</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>20976.619140999999</v>
       </c>
@@ -10852,8 +12377,11 @@
       <c r="E507" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F507" s="1">
+        <v>20913.460938</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>20987.759765999999</v>
       </c>
@@ -10869,8 +12397,11 @@
       <c r="E508" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F508" s="1">
+        <v>20940.509765999999</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>21005.800781000002</v>
       </c>
@@ -10886,8 +12417,11 @@
       <c r="E509" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F509" s="1">
+        <v>20981.330077999999</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
         <v>21070.900390999999</v>
       </c>
@@ -10903,8 +12437,11 @@
       <c r="E510" s="1" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F510" s="1">
+        <v>20975.089843999998</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
         <v>21026.970702999999</v>
       </c>
@@ -10920,8 +12457,11 @@
       <c r="E511" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F511" s="1">
+        <v>20996.119140999999</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>20792.199218999998</v>
       </c>
@@ -10937,8 +12477,11 @@
       <c r="E512" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F512" s="1">
+        <v>20763.890625</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>20601.400390999999</v>
       </c>
@@ -10954,8 +12497,11 @@
       <c r="E513" s="1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F513" s="1">
+        <v>20547.759765999999</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>20629.779297000001</v>
       </c>
@@ -10971,8 +12517,11 @@
       <c r="E514" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F514" s="1">
+        <v>20578.710938</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
         <v>20546.689452999999</v>
       </c>
@@ -10988,8 +12537,11 @@
       <c r="E515" s="1" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F515" s="1">
+        <v>20404.490234000001</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>20600.119140999999</v>
       </c>
@@ -11005,8 +12557,11 @@
       <c r="E516" s="1" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F516" s="1">
+        <v>20523.279297000001</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>20644.410156000002</v>
       </c>
@@ -11022,8 +12577,11 @@
       <c r="E517" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F517" s="1">
+        <v>20636.919922000001</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>20612.269531000002</v>
       </c>
@@ -11039,8 +12597,11 @@
       <c r="E518" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F518" s="1">
+        <v>20453.25</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>20642.539063</v>
       </c>
@@ -11056,8 +12617,11 @@
       <c r="E519" s="1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F519" s="1">
+        <v>20591.859375</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
         <v>20660.029297000001</v>
       </c>
@@ -11073,8 +12637,11 @@
       <c r="E520" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F520" s="1">
+        <v>20651.300781000002</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>20750.330077999999</v>
       </c>
@@ -11090,8 +12657,11 @@
       <c r="E521" s="1" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F521" s="1">
+        <v>20658.019531000002</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>20726.070313</v>
       </c>
@@ -11107,8 +12677,11 @@
       <c r="E522" s="1" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F522" s="1">
+        <v>20656.099609000001</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>20746.460938</v>
       </c>
@@ -11124,8 +12697,11 @@
       <c r="E523" s="1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F523" s="1">
+        <v>20662.949218999998</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>20887.5</v>
       </c>
@@ -11141,8 +12717,11 @@
       <c r="E524" s="1" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F524" s="1">
+        <v>20648.150390999999</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A525" s="1">
         <v>20701.289063</v>
       </c>
@@ -11158,8 +12737,11 @@
       <c r="E525" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F525" s="1">
+        <v>20689.240234000001</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>20692.339843999998</v>
       </c>
@@ -11175,8 +12757,11 @@
       <c r="E526" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F526" s="1">
+        <v>20650.210938</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A527" s="1">
         <v>20722.589843999998</v>
       </c>
@@ -11192,8 +12777,11 @@
       <c r="E527" s="1" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F527" s="1">
+        <v>20663.220702999999</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>20753.779297000001</v>
       </c>
@@ -11209,8 +12797,11 @@
       <c r="E528" s="1" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F528" s="1">
+        <v>20728.490234000001</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A529" s="1">
         <v>20684.730468999998</v>
       </c>
@@ -11226,8 +12817,11 @@
       <c r="E529" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F529" s="1">
+        <v>20659.320313</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>20735.609375</v>
       </c>
@@ -11243,8 +12837,11 @@
       <c r="E530" s="1" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F530" s="1">
+        <v>20701.5</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A531" s="1">
         <v>20578.460938</v>
       </c>
@@ -11260,8 +12857,11 @@
       <c r="E531" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F531" s="1">
+        <v>20550.980468999998</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>20718.330077999999</v>
       </c>
@@ -11277,8 +12877,11 @@
       <c r="E532" s="1" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F532" s="1">
+        <v>20596.720702999999</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>20757.890625</v>
       </c>
@@ -11294,8 +12897,11 @@
       <c r="E533" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F533" s="1">
+        <v>20656.580077999999</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
         <v>20686.210938</v>
       </c>
@@ -11311,8 +12917,11 @@
       <c r="E534" s="1" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F534" s="1">
+        <v>20661.300781000002</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
         <v>20970.039063</v>
       </c>
@@ -11328,8 +12937,11 @@
       <c r="E535" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F535" s="1">
+        <v>20668.009765999999</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>20955.449218999998</v>
       </c>
@@ -11345,8 +12957,11 @@
       <c r="E536" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F536" s="1">
+        <v>20905.859375</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A537" s="1">
         <v>20980.509765999999</v>
       </c>
@@ -11362,8 +12977,11 @@
       <c r="E537" s="1" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F537" s="1">
+        <v>20914.619140999999</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A538" s="1">
         <v>21000.109375</v>
       </c>
@@ -11379,8 +12997,11 @@
       <c r="E538" s="1" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F538" s="1">
+        <v>20934.550781000002</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A539" s="1">
         <v>20977.470702999999</v>
       </c>
@@ -11396,8 +13017,11 @@
       <c r="E539" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F539" s="1">
+        <v>20950.099609000001</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A540" s="1">
         <v>20874</v>
       </c>
@@ -11413,8 +13037,11 @@
       <c r="E540" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F540" s="1">
+        <v>20837.369140999999</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A541" s="1">
         <v>20926.060547000001</v>
       </c>
@@ -11430,8 +13057,11 @@
       <c r="E541" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F541" s="1">
+        <v>20881.480468999998</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A542" s="1">
         <v>20940.289063</v>
       </c>
@@ -11447,8 +13077,11 @@
       <c r="E542" s="1" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F542" s="1">
+        <v>20902.980468999998</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A543" s="1">
         <v>20900.570313</v>
       </c>
@@ -11464,8 +13097,11 @@
       <c r="E543" s="1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F543" s="1">
+        <v>20858.189452999999</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A544" s="1">
         <v>20951.439452999999</v>
       </c>
@@ -11481,8 +13117,11 @@
       <c r="E544" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F544" s="1">
+        <v>20855.730468999998</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A545" s="1">
         <v>20970.539063</v>
       </c>
@@ -11498,8 +13137,11 @@
       <c r="E545" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F545" s="1">
+        <v>20924.759765999999</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A546" s="1">
         <v>20986.429688</v>
       </c>
@@ -11515,8 +13157,11 @@
       <c r="E546" s="1" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F546" s="1">
+        <v>20954.339843999998</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A547" s="1">
         <v>21039.960938</v>
       </c>
@@ -11532,8 +13177,11 @@
       <c r="E547" s="1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F547" s="1">
+        <v>21005.710938</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A548" s="1">
         <v>21129.199218999998</v>
       </c>
@@ -11549,8 +13197,11 @@
       <c r="E548" s="1" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F548" s="1">
+        <v>21002.970702999999</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A549" s="1">
         <v>21169.109375</v>
       </c>
@@ -11566,8 +13217,11 @@
       <c r="E549" s="1" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F549" s="1">
+        <v>21115.550781000002</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A550" s="1">
         <v>20841.240234000001</v>
       </c>
@@ -11583,8 +13237,11 @@
       <c r="E550" s="1" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F550" s="1">
+        <v>20812.240234000001</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
         <v>20851.330077999999</v>
       </c>
@@ -11600,8 +13257,11 @@
       <c r="E551" s="1" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F551" s="1">
+        <v>20837.439452999999</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
         <v>20821.759765999999</v>
       </c>
@@ -11617,8 +13277,11 @@
       <c r="E552" s="1" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F552" s="1">
+        <v>20821.759765999999</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A553" s="1">
         <v>20840.699218999998</v>
       </c>
@@ -11634,8 +13297,11 @@
       <c r="E553" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F553" s="1">
+        <v>20810.320313</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>20781.589843999998</v>
       </c>
@@ -11651,8 +13317,11 @@
       <c r="E554" s="1" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F554" s="1">
+        <v>20775.599609000001</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
         <v>20757.640625</v>
       </c>
@@ -11668,8 +13337,11 @@
       <c r="E555" s="1" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F555" s="1">
+        <v>20743</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
         <v>20624.050781000002</v>
       </c>
@@ -11685,8 +13357,11 @@
       <c r="E556" s="1" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F556" s="1">
+        <v>20624.050781000002</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>20639.869140999999</v>
       </c>
@@ -11702,8 +13377,11 @@
       <c r="E557" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F557" s="1">
+        <v>20619.769531000002</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
         <v>20620.449218999998</v>
       </c>
@@ -11719,8 +13397,11 @@
       <c r="E558" s="1" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F558" s="1">
+        <v>20611.859375</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
         <v>20504.410156000002</v>
       </c>
@@ -11736,8 +13417,11 @@
       <c r="E559" s="1" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F559" s="1">
+        <v>20504.410156000002</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
         <v>20441.480468999998</v>
       </c>
@@ -11753,8 +13437,11 @@
       <c r="E560" s="1" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F560" s="1">
+        <v>20412.160156000002</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
         <v>20298.210938</v>
       </c>
@@ -11770,8 +13457,11 @@
       <c r="E561" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F561" s="1">
+        <v>20269.369140999999</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A562" s="1">
         <v>20206.359375</v>
       </c>
@@ -11787,8 +13477,11 @@
       <c r="E562" s="1" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F562" s="1">
+        <v>20172.400390999999</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A563" s="1">
         <v>20068.279297000001</v>
       </c>
@@ -11804,8 +13497,11 @@
       <c r="E563" s="1" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F563" s="1">
+        <v>20054.339843999998</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
         <v>20155.349609000001</v>
       </c>
@@ -11821,8 +13517,11 @@
       <c r="E564" s="1" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F564" s="1">
+        <v>20090.289063</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A565" s="1">
         <v>20094.949218999998</v>
       </c>
@@ -11838,8 +13537,11 @@
       <c r="E565" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F565" s="1">
+        <v>20052.419922000001</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A566" s="1">
         <v>20081.480468999998</v>
       </c>
@@ -11855,8 +13557,11 @@
       <c r="E566" s="1" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F566" s="1">
+        <v>20071.460938</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
         <v>19922.75</v>
       </c>
@@ -11872,8 +13577,11 @@
       <c r="E567" s="1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F567" s="1">
+        <v>19884.910156000002</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
         <v>19967.730468999998</v>
       </c>
@@ -11889,8 +13597,11 @@
       <c r="E568" s="1" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F568" s="1">
+        <v>19890.939452999999</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
         <v>19918.169922000001</v>
       </c>
@@ -11906,8 +13617,11 @@
       <c r="E569" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F569" s="1">
+        <v>19864.089843999998</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
         <v>20028.619140999999</v>
       </c>
@@ -11923,8 +13637,11 @@
       <c r="E570" s="1" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F570" s="1">
+        <v>19971.130859000001</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A571" s="1">
         <v>20115.970702999999</v>
       </c>
@@ -11940,8 +13657,11 @@
       <c r="E571" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F571" s="1">
+        <v>20093.779297000001</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A572" s="1">
         <v>20125.580077999999</v>
       </c>
@@ -11957,8 +13677,11 @@
       <c r="E572" s="1" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F572" s="1">
+        <v>20100.910156000002</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A573" s="1">
         <v>20082</v>
       </c>
@@ -11974,8 +13697,11 @@
       <c r="E573" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F573" s="1">
+        <v>20068.509765999999</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A574" s="1">
         <v>19949.240234000001</v>
       </c>
@@ -11991,8 +13717,11 @@
       <c r="E574" s="1" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F574" s="1">
+        <v>19912.710938</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A575" s="1">
         <v>19833.980468999998</v>
       </c>
@@ -12008,8 +13737,11 @@
       <c r="E575" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F575" s="1">
+        <v>19799.849609000001</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A576" s="1">
         <v>19843.939452999999</v>
       </c>
@@ -12025,8 +13757,11 @@
       <c r="E576" s="1" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F576" s="1">
+        <v>19827.25</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A577" s="1">
         <v>19824.140625</v>
       </c>
@@ -12042,8 +13777,11 @@
       <c r="E577" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F577" s="1">
+        <v>19732.400390999999</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A578" s="1">
         <v>19828.199218999998</v>
       </c>
@@ -12059,8 +13797,11 @@
       <c r="E578" s="1" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F578" s="1">
+        <v>19804.720702999999</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A579" s="1">
         <v>19882.990234000001</v>
       </c>
@@ -12076,8 +13817,11 @@
       <c r="E579" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F579" s="1">
+        <v>19826.769531000002</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A580" s="1">
         <v>19952.029297000001</v>
       </c>
@@ -12093,8 +13837,11 @@
       <c r="E580" s="1" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F580" s="1">
+        <v>19885.730468999998</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A581" s="1">
         <v>19929.289063</v>
       </c>
@@ -12110,8 +13857,11 @@
       <c r="E581" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F581" s="1">
+        <v>19891</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A582" s="1">
         <v>19973.419922000001</v>
       </c>
@@ -12127,8 +13877,11 @@
       <c r="E582" s="1" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F582" s="1">
+        <v>19954.279297000001</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A583" s="1">
         <v>19957.119140999999</v>
       </c>
@@ -12144,8 +13897,11 @@
       <c r="E583" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F583" s="1">
+        <v>19855.529297000001</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A584" s="1">
         <v>19943.779297000001</v>
       </c>
@@ -12161,8 +13917,11 @@
       <c r="E584" s="1" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F584" s="1">
+        <v>19887.380859000001</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A585" s="1">
         <v>19999.630859000001</v>
       </c>
@@ -12178,8 +13937,11 @@
       <c r="E585" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F585" s="1">
+        <v>19963.800781000002</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A586" s="1">
         <v>19948.599609000001</v>
       </c>
@@ -12195,8 +13957,11 @@
       <c r="E586" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F586" s="1">
+        <v>19899.289063</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A587" s="1">
         <v>19956.140625</v>
       </c>
@@ -12212,8 +13977,11 @@
       <c r="E587" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F587" s="1">
+        <v>19942.160156000002</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A588" s="1">
         <v>19938.529297000001</v>
       </c>
@@ -12228,6 +13996,9 @@
       </c>
       <c r="E588" s="1" t="s">
         <v>590</v>
+      </c>
+      <c r="F588" s="1">
+        <v>19881.759765999999</v>
       </c>
     </row>
   </sheetData>
